--- a/pop age all prov 1996-2016 cleaned.xlsx
+++ b/pop age all prov 1996-2016 cleaned.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschi\Google Drive\CSDA1000\Group Project\From_Kimberly_20190618\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{22ECA6C2-175E-47E5-BCF0-EAD8350AB01C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F16F1-67F5-4749-A28C-7669F796D229}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="944"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="944" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="origdata" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="57">
   <si>
     <t>Population estimates on July 1st, by age and sex 1 2 3 4</t>
   </si>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,10 +1042,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -6526,7 +6526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8105,7 +8105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9685,7 +9685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11268,7 +11268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12847,7 +12847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14426,7 +14426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16005,7 +16005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17584,7 +17584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19163,7 +19163,1585 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="9.62890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1">
+        <v>1996</v>
+      </c>
+      <c r="C1">
+        <v>1997</v>
+      </c>
+      <c r="D1">
+        <v>1998</v>
+      </c>
+      <c r="E1">
+        <v>1999</v>
+      </c>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1">
+        <v>2001</v>
+      </c>
+      <c r="H1">
+        <v>2002</v>
+      </c>
+      <c r="I1">
+        <v>2003</v>
+      </c>
+      <c r="J1">
+        <v>2004</v>
+      </c>
+      <c r="K1">
+        <v>2005</v>
+      </c>
+      <c r="L1">
+        <v>2006</v>
+      </c>
+      <c r="M1">
+        <v>2007</v>
+      </c>
+      <c r="N1">
+        <v>2008</v>
+      </c>
+      <c r="O1">
+        <v>2009</v>
+      </c>
+      <c r="P1">
+        <v>2010</v>
+      </c>
+      <c r="Q1">
+        <v>2011</v>
+      </c>
+      <c r="R1">
+        <v>2012</v>
+      </c>
+      <c r="S1">
+        <v>2013</v>
+      </c>
+      <c r="T1">
+        <v>2014</v>
+      </c>
+      <c r="U1">
+        <v>2015</v>
+      </c>
+      <c r="V1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11082903</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11227651</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11365901</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11504759</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11683290</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11897534</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12094174</v>
+      </c>
+      <c r="I2" s="1">
+        <v>12245039</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12391421</v>
+      </c>
+      <c r="K2" s="1">
+        <v>12528663</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12661878</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12764806</v>
+      </c>
+      <c r="N2" s="1">
+        <v>12883583</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12998345</v>
+      </c>
+      <c r="P2" s="1">
+        <v>13135778</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>13261381</v>
+      </c>
+      <c r="R2" s="1">
+        <v>13390632</v>
+      </c>
+      <c r="S2" s="1">
+        <v>13510781</v>
+      </c>
+      <c r="T2" s="1">
+        <v>13617553</v>
+      </c>
+      <c r="U2" s="1">
+        <v>13707118</v>
+      </c>
+      <c r="V2" s="1">
+        <v>13875394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>754173</v>
+      </c>
+      <c r="C3" s="1">
+        <v>740561</v>
+      </c>
+      <c r="D3" s="1">
+        <v>728431</v>
+      </c>
+      <c r="E3" s="1">
+        <v>716675</v>
+      </c>
+      <c r="F3" s="1">
+        <v>708739</v>
+      </c>
+      <c r="G3" s="1">
+        <v>702270</v>
+      </c>
+      <c r="H3" s="1">
+        <v>690420</v>
+      </c>
+      <c r="I3" s="1">
+        <v>680378</v>
+      </c>
+      <c r="J3" s="1">
+        <v>679461</v>
+      </c>
+      <c r="K3" s="1">
+        <v>681077</v>
+      </c>
+      <c r="L3" s="1">
+        <v>688154</v>
+      </c>
+      <c r="M3" s="1">
+        <v>690624</v>
+      </c>
+      <c r="N3" s="1">
+        <v>698506</v>
+      </c>
+      <c r="O3" s="1">
+        <v>703657</v>
+      </c>
+      <c r="P3" s="1">
+        <v>711568</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>718272</v>
+      </c>
+      <c r="R3" s="1">
+        <v>720004</v>
+      </c>
+      <c r="S3" s="1">
+        <v>718359</v>
+      </c>
+      <c r="T3" s="1">
+        <v>716119</v>
+      </c>
+      <c r="U3" s="1">
+        <v>713667</v>
+      </c>
+      <c r="V3" s="1">
+        <v>718208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>759908</v>
+      </c>
+      <c r="C4" s="1">
+        <v>772808</v>
+      </c>
+      <c r="D4" s="1">
+        <v>786363</v>
+      </c>
+      <c r="E4" s="1">
+        <v>791436</v>
+      </c>
+      <c r="F4" s="1">
+        <v>794472</v>
+      </c>
+      <c r="G4" s="1">
+        <v>797798</v>
+      </c>
+      <c r="H4" s="1">
+        <v>794154</v>
+      </c>
+      <c r="I4" s="1">
+        <v>781985</v>
+      </c>
+      <c r="J4" s="1">
+        <v>766729</v>
+      </c>
+      <c r="K4" s="1">
+        <v>749785</v>
+      </c>
+      <c r="L4" s="1">
+        <v>731798</v>
+      </c>
+      <c r="M4" s="1">
+        <v>722860</v>
+      </c>
+      <c r="N4" s="1">
+        <v>717163</v>
+      </c>
+      <c r="O4" s="1">
+        <v>716417</v>
+      </c>
+      <c r="P4" s="1">
+        <v>714810</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>718811</v>
+      </c>
+      <c r="R4" s="1">
+        <v>728203</v>
+      </c>
+      <c r="S4" s="1">
+        <v>739997</v>
+      </c>
+      <c r="T4" s="1">
+        <v>746093</v>
+      </c>
+      <c r="U4" s="1">
+        <v>752382</v>
+      </c>
+      <c r="V4" s="1">
+        <v>759846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>740403</v>
+      </c>
+      <c r="C5" s="1">
+        <v>755090</v>
+      </c>
+      <c r="D5" s="1">
+        <v>765784</v>
+      </c>
+      <c r="E5" s="1">
+        <v>775997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>789378</v>
+      </c>
+      <c r="G5" s="1">
+        <v>803872</v>
+      </c>
+      <c r="H5" s="1">
+        <v>823182</v>
+      </c>
+      <c r="I5" s="1">
+        <v>836776</v>
+      </c>
+      <c r="J5" s="1">
+        <v>841389</v>
+      </c>
+      <c r="K5" s="1">
+        <v>839154</v>
+      </c>
+      <c r="L5" s="1">
+        <v>830734</v>
+      </c>
+      <c r="M5" s="1">
+        <v>822263</v>
+      </c>
+      <c r="N5" s="1">
+        <v>812633</v>
+      </c>
+      <c r="O5" s="1">
+        <v>800471</v>
+      </c>
+      <c r="P5" s="1">
+        <v>786095</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>769353</v>
+      </c>
+      <c r="R5" s="1">
+        <v>759024</v>
+      </c>
+      <c r="S5" s="1">
+        <v>753221</v>
+      </c>
+      <c r="T5" s="1">
+        <v>754382</v>
+      </c>
+      <c r="U5" s="1">
+        <v>754204</v>
+      </c>
+      <c r="V5" s="1">
+        <v>761464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>720550</v>
+      </c>
+      <c r="C6" s="1">
+        <v>730614</v>
+      </c>
+      <c r="D6" s="1">
+        <v>747249</v>
+      </c>
+      <c r="E6" s="1">
+        <v>764197</v>
+      </c>
+      <c r="F6" s="1">
+        <v>785179</v>
+      </c>
+      <c r="G6" s="1">
+        <v>805189</v>
+      </c>
+      <c r="H6" s="1">
+        <v>820745</v>
+      </c>
+      <c r="I6" s="1">
+        <v>829400</v>
+      </c>
+      <c r="J6" s="1">
+        <v>841723</v>
+      </c>
+      <c r="K6" s="1">
+        <v>857961</v>
+      </c>
+      <c r="L6" s="1">
+        <v>873083</v>
+      </c>
+      <c r="M6" s="1">
+        <v>878271</v>
+      </c>
+      <c r="N6" s="1">
+        <v>886676</v>
+      </c>
+      <c r="O6" s="1">
+        <v>890901</v>
+      </c>
+      <c r="P6" s="1">
+        <v>894985</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>896013</v>
+      </c>
+      <c r="R6" s="1">
+        <v>882312</v>
+      </c>
+      <c r="S6" s="1">
+        <v>867139</v>
+      </c>
+      <c r="T6" s="1">
+        <v>853570</v>
+      </c>
+      <c r="U6" s="1">
+        <v>841992</v>
+      </c>
+      <c r="V6" s="1">
+        <v>839916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>744615</v>
+      </c>
+      <c r="C7" s="1">
+        <v>742452</v>
+      </c>
+      <c r="D7" s="1">
+        <v>741437</v>
+      </c>
+      <c r="E7" s="1">
+        <v>749792</v>
+      </c>
+      <c r="F7" s="1">
+        <v>763384</v>
+      </c>
+      <c r="G7" s="1">
+        <v>784373</v>
+      </c>
+      <c r="H7" s="1">
+        <v>802149</v>
+      </c>
+      <c r="I7" s="1">
+        <v>823926</v>
+      </c>
+      <c r="J7" s="1">
+        <v>842760</v>
+      </c>
+      <c r="K7" s="1">
+        <v>859989</v>
+      </c>
+      <c r="L7" s="1">
+        <v>873578</v>
+      </c>
+      <c r="M7" s="1">
+        <v>880047</v>
+      </c>
+      <c r="N7" s="1">
+        <v>880516</v>
+      </c>
+      <c r="O7" s="1">
+        <v>887758</v>
+      </c>
+      <c r="P7" s="1">
+        <v>904290</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>919917</v>
+      </c>
+      <c r="R7" s="1">
+        <v>935985</v>
+      </c>
+      <c r="S7" s="1">
+        <v>946727</v>
+      </c>
+      <c r="T7" s="1">
+        <v>950145</v>
+      </c>
+      <c r="U7" s="1">
+        <v>946062</v>
+      </c>
+      <c r="V7" s="1">
+        <v>954329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>823027</v>
+      </c>
+      <c r="C8" s="1">
+        <v>816290</v>
+      </c>
+      <c r="D8" s="1">
+        <v>808836</v>
+      </c>
+      <c r="E8" s="1">
+        <v>802263</v>
+      </c>
+      <c r="F8" s="1">
+        <v>802787</v>
+      </c>
+      <c r="G8" s="1">
+        <v>806911</v>
+      </c>
+      <c r="H8" s="1">
+        <v>811644</v>
+      </c>
+      <c r="I8" s="1">
+        <v>812838</v>
+      </c>
+      <c r="J8" s="1">
+        <v>818812</v>
+      </c>
+      <c r="K8" s="1">
+        <v>822373</v>
+      </c>
+      <c r="L8" s="1">
+        <v>829300</v>
+      </c>
+      <c r="M8" s="1">
+        <v>838851</v>
+      </c>
+      <c r="N8" s="1">
+        <v>854133</v>
+      </c>
+      <c r="O8" s="1">
+        <v>866932</v>
+      </c>
+      <c r="P8" s="1">
+        <v>882809</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>893030</v>
+      </c>
+      <c r="R8" s="1">
+        <v>905924</v>
+      </c>
+      <c r="S8" s="1">
+        <v>910422</v>
+      </c>
+      <c r="T8" s="1">
+        <v>918599</v>
+      </c>
+      <c r="U8" s="1">
+        <v>926168</v>
+      </c>
+      <c r="V8" s="1">
+        <v>946087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>991565</v>
+      </c>
+      <c r="C9" s="1">
+        <v>970320</v>
+      </c>
+      <c r="D9" s="1">
+        <v>937581</v>
+      </c>
+      <c r="E9" s="1">
+        <v>907564</v>
+      </c>
+      <c r="F9" s="1">
+        <v>891629</v>
+      </c>
+      <c r="G9" s="1">
+        <v>896326</v>
+      </c>
+      <c r="H9" s="1">
+        <v>899841</v>
+      </c>
+      <c r="I9" s="1">
+        <v>894928</v>
+      </c>
+      <c r="J9" s="1">
+        <v>885703</v>
+      </c>
+      <c r="K9" s="1">
+        <v>878406</v>
+      </c>
+      <c r="L9" s="1">
+        <v>867356</v>
+      </c>
+      <c r="M9" s="1">
+        <v>858103</v>
+      </c>
+      <c r="N9" s="1">
+        <v>853673</v>
+      </c>
+      <c r="O9" s="1">
+        <v>853404</v>
+      </c>
+      <c r="P9" s="1">
+        <v>855996</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>865090</v>
+      </c>
+      <c r="R9" s="1">
+        <v>876783</v>
+      </c>
+      <c r="S9" s="1">
+        <v>891758</v>
+      </c>
+      <c r="T9" s="1">
+        <v>903193</v>
+      </c>
+      <c r="U9" s="1">
+        <v>913296</v>
+      </c>
+      <c r="V9" s="1">
+        <v>932338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>971298</v>
+      </c>
+      <c r="C10" s="1">
+        <v>995477</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1018402</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1038385</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1050058</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1045513</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1032826</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1005229</v>
+      </c>
+      <c r="J10" s="1">
+        <v>975649</v>
+      </c>
+      <c r="K10" s="1">
+        <v>952893</v>
+      </c>
+      <c r="L10" s="1">
+        <v>942137</v>
+      </c>
+      <c r="M10" s="1">
+        <v>931428</v>
+      </c>
+      <c r="N10" s="1">
+        <v>922358</v>
+      </c>
+      <c r="O10" s="1">
+        <v>908306</v>
+      </c>
+      <c r="P10" s="1">
+        <v>897909</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>883530</v>
+      </c>
+      <c r="R10" s="1">
+        <v>881842</v>
+      </c>
+      <c r="S10" s="1">
+        <v>881081</v>
+      </c>
+      <c r="T10" s="1">
+        <v>882789</v>
+      </c>
+      <c r="U10" s="1">
+        <v>882498</v>
+      </c>
+      <c r="V10" s="1">
+        <v>894083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>864259</v>
+      </c>
+      <c r="C11" s="1">
+        <v>894292</v>
+      </c>
+      <c r="D11" s="1">
+        <v>921572</v>
+      </c>
+      <c r="E11" s="1">
+        <v>944716</v>
+      </c>
+      <c r="F11" s="1">
+        <v>971430</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1005667</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1034138</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1060979</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1085562</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1097768</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1087451</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1060707</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1023581</v>
+      </c>
+      <c r="O11" s="1">
+        <v>987031</v>
+      </c>
+      <c r="P11" s="1">
+        <v>959127</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>949223</v>
+      </c>
+      <c r="R11" s="1">
+        <v>944757</v>
+      </c>
+      <c r="S11" s="1">
+        <v>938045</v>
+      </c>
+      <c r="T11" s="1">
+        <v>927055</v>
+      </c>
+      <c r="U11" s="1">
+        <v>917309</v>
+      </c>
+      <c r="V11" s="1">
+        <v>907532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>789653</v>
+      </c>
+      <c r="C12" s="1">
+        <v>794248</v>
+      </c>
+      <c r="D12" s="1">
+        <v>806701</v>
+      </c>
+      <c r="E12" s="1">
+        <v>827380</v>
+      </c>
+      <c r="F12" s="1">
+        <v>854391</v>
+      </c>
+      <c r="G12" s="1">
+        <v>881682</v>
+      </c>
+      <c r="H12" s="1">
+        <v>914074</v>
+      </c>
+      <c r="I12" s="1">
+        <v>943414</v>
+      </c>
+      <c r="J12" s="1">
+        <v>968850</v>
+      </c>
+      <c r="K12" s="1">
+        <v>994528</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1024342</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1047402</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1073932</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1094063</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1099812</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1081119</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1056981</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1024155</v>
+      </c>
+      <c r="T12" s="1">
+        <v>992797</v>
+      </c>
+      <c r="U12" s="1">
+        <v>968011</v>
+      </c>
+      <c r="V12" s="1">
+        <v>960850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>608188</v>
+      </c>
+      <c r="C13" s="1">
+        <v>656403</v>
+      </c>
+      <c r="D13" s="1">
+        <v>694553</v>
+      </c>
+      <c r="E13" s="1">
+        <v>727457</v>
+      </c>
+      <c r="F13" s="1">
+        <v>761709</v>
+      </c>
+      <c r="G13" s="1">
+        <v>791641</v>
+      </c>
+      <c r="H13" s="1">
+        <v>797746</v>
+      </c>
+      <c r="I13" s="1">
+        <v>810844</v>
+      </c>
+      <c r="J13" s="1">
+        <v>833389</v>
+      </c>
+      <c r="K13" s="1">
+        <v>860955</v>
+      </c>
+      <c r="L13" s="1">
+        <v>887843</v>
+      </c>
+      <c r="M13" s="1">
+        <v>918272</v>
+      </c>
+      <c r="N13" s="1">
+        <v>946766</v>
+      </c>
+      <c r="O13" s="1">
+        <v>972516</v>
+      </c>
+      <c r="P13" s="1">
+        <v>998740</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1028247</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1047592</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1068422</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1085394</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1089706</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1075341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>500697</v>
+      </c>
+      <c r="C14" s="1">
+        <v>515136</v>
+      </c>
+      <c r="D14" s="1">
+        <v>534945</v>
+      </c>
+      <c r="E14" s="1">
+        <v>553709</v>
+      </c>
+      <c r="F14" s="1">
+        <v>573195</v>
+      </c>
+      <c r="G14" s="1">
+        <v>600579</v>
+      </c>
+      <c r="H14" s="1">
+        <v>650017</v>
+      </c>
+      <c r="I14" s="1">
+        <v>689169</v>
+      </c>
+      <c r="J14" s="1">
+        <v>722182</v>
+      </c>
+      <c r="K14" s="1">
+        <v>754674</v>
+      </c>
+      <c r="L14" s="1">
+        <v>782581</v>
+      </c>
+      <c r="M14" s="1">
+        <v>787885</v>
+      </c>
+      <c r="N14" s="1">
+        <v>801973</v>
+      </c>
+      <c r="O14" s="1">
+        <v>824532</v>
+      </c>
+      <c r="P14" s="1">
+        <v>852843</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>878821</v>
+      </c>
+      <c r="R14" s="1">
+        <v>908006</v>
+      </c>
+      <c r="S14" s="1">
+        <v>936047</v>
+      </c>
+      <c r="T14" s="1">
+        <v>959982</v>
+      </c>
+      <c r="U14" s="1">
+        <v>982043</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1007466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>458965</v>
+      </c>
+      <c r="C15" s="1">
+        <v>459482</v>
+      </c>
+      <c r="D15" s="1">
+        <v>462079</v>
+      </c>
+      <c r="E15" s="1">
+        <v>469225</v>
+      </c>
+      <c r="F15" s="1">
+        <v>475942</v>
+      </c>
+      <c r="G15" s="1">
+        <v>486408</v>
+      </c>
+      <c r="H15" s="1">
+        <v>503276</v>
+      </c>
+      <c r="I15" s="1">
+        <v>524872</v>
+      </c>
+      <c r="J15" s="1">
+        <v>546355</v>
+      </c>
+      <c r="K15" s="1">
+        <v>566281</v>
+      </c>
+      <c r="L15" s="1">
+        <v>591893</v>
+      </c>
+      <c r="M15" s="1">
+        <v>637955</v>
+      </c>
+      <c r="N15" s="1">
+        <v>675920</v>
+      </c>
+      <c r="O15" s="1">
+        <v>709028</v>
+      </c>
+      <c r="P15" s="1">
+        <v>744059</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>771125</v>
+      </c>
+      <c r="R15" s="1">
+        <v>774004</v>
+      </c>
+      <c r="S15" s="1">
+        <v>786729</v>
+      </c>
+      <c r="T15" s="1">
+        <v>806510</v>
+      </c>
+      <c r="U15" s="1">
+        <v>831612</v>
+      </c>
+      <c r="V15" s="1">
+        <v>856710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>431046</v>
+      </c>
+      <c r="C16" s="1">
+        <v>434894</v>
+      </c>
+      <c r="D16" s="1">
+        <v>436852</v>
+      </c>
+      <c r="E16" s="1">
+        <v>437277</v>
+      </c>
+      <c r="F16" s="1">
+        <v>435923</v>
+      </c>
+      <c r="G16" s="1">
+        <v>435654</v>
+      </c>
+      <c r="H16" s="1">
+        <v>436865</v>
+      </c>
+      <c r="I16" s="1">
+        <v>440391</v>
+      </c>
+      <c r="J16" s="1">
+        <v>449060</v>
+      </c>
+      <c r="K16" s="1">
+        <v>455816</v>
+      </c>
+      <c r="L16" s="1">
+        <v>468309</v>
+      </c>
+      <c r="M16" s="1">
+        <v>484815</v>
+      </c>
+      <c r="N16" s="1">
+        <v>505594</v>
+      </c>
+      <c r="O16" s="1">
+        <v>525615</v>
+      </c>
+      <c r="P16" s="1">
+        <v>545176</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>570269</v>
+      </c>
+      <c r="R16" s="1">
+        <v>616006</v>
+      </c>
+      <c r="S16" s="1">
+        <v>654852</v>
+      </c>
+      <c r="T16" s="1">
+        <v>686061</v>
+      </c>
+      <c r="U16" s="1">
+        <v>716078</v>
+      </c>
+      <c r="V16" s="1">
+        <v>739710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>374095</v>
+      </c>
+      <c r="C17" s="1">
+        <v>377436</v>
+      </c>
+      <c r="D17" s="1">
+        <v>381460</v>
+      </c>
+      <c r="E17" s="1">
+        <v>383014</v>
+      </c>
+      <c r="F17" s="1">
+        <v>387138</v>
+      </c>
+      <c r="G17" s="1">
+        <v>392506</v>
+      </c>
+      <c r="H17" s="1">
+        <v>396991</v>
+      </c>
+      <c r="I17" s="1">
+        <v>399343</v>
+      </c>
+      <c r="J17" s="1">
+        <v>400754</v>
+      </c>
+      <c r="K17" s="1">
+        <v>400448</v>
+      </c>
+      <c r="L17" s="1">
+        <v>400991</v>
+      </c>
+      <c r="M17" s="1">
+        <v>403361</v>
+      </c>
+      <c r="N17" s="1">
+        <v>409207</v>
+      </c>
+      <c r="O17" s="1">
+        <v>419815</v>
+      </c>
+      <c r="P17" s="1">
+        <v>429734</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>441675</v>
+      </c>
+      <c r="R17" s="1">
+        <v>455534</v>
+      </c>
+      <c r="S17" s="1">
+        <v>474736</v>
+      </c>
+      <c r="T17" s="1">
+        <v>493339</v>
+      </c>
+      <c r="U17" s="1">
+        <v>510659</v>
+      </c>
+      <c r="V17" s="1">
+        <v>534238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>255651</v>
+      </c>
+      <c r="C18" s="1">
+        <v>271255</v>
+      </c>
+      <c r="D18" s="1">
+        <v>287641</v>
+      </c>
+      <c r="E18" s="1">
+        <v>302618</v>
+      </c>
+      <c r="F18" s="1">
+        <v>310744</v>
+      </c>
+      <c r="G18" s="1">
+        <v>316610</v>
+      </c>
+      <c r="H18" s="1">
+        <v>322110</v>
+      </c>
+      <c r="I18" s="1">
+        <v>327646</v>
+      </c>
+      <c r="J18" s="1">
+        <v>330464</v>
+      </c>
+      <c r="K18" s="1">
+        <v>334753</v>
+      </c>
+      <c r="L18" s="1">
+        <v>339814</v>
+      </c>
+      <c r="M18" s="1">
+        <v>344092</v>
+      </c>
+      <c r="N18" s="1">
+        <v>347720</v>
+      </c>
+      <c r="O18" s="1">
+        <v>350343</v>
+      </c>
+      <c r="P18" s="1">
+        <v>353355</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>355908</v>
+      </c>
+      <c r="R18" s="1">
+        <v>359678</v>
+      </c>
+      <c r="S18" s="1">
+        <v>366520</v>
+      </c>
+      <c r="T18" s="1">
+        <v>376139</v>
+      </c>
+      <c r="U18" s="1">
+        <v>383926</v>
+      </c>
+      <c r="V18" s="1">
+        <v>393567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>167329</v>
+      </c>
+      <c r="C19" s="1">
+        <v>169758</v>
+      </c>
+      <c r="D19" s="1">
+        <v>170414</v>
+      </c>
+      <c r="E19" s="1">
+        <v>172154</v>
+      </c>
+      <c r="F19" s="1">
+        <v>180580</v>
+      </c>
+      <c r="G19" s="1">
+        <v>193407</v>
+      </c>
+      <c r="H19" s="1">
+        <v>207702</v>
+      </c>
+      <c r="I19" s="1">
+        <v>222106</v>
+      </c>
+      <c r="J19" s="1">
+        <v>236083</v>
+      </c>
+      <c r="K19" s="1">
+        <v>244573</v>
+      </c>
+      <c r="L19" s="1">
+        <v>250967</v>
+      </c>
+      <c r="M19" s="1">
+        <v>254352</v>
+      </c>
+      <c r="N19" s="1">
+        <v>258368</v>
+      </c>
+      <c r="O19" s="1">
+        <v>260800</v>
+      </c>
+      <c r="P19" s="1">
+        <v>265780</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>271772</v>
+      </c>
+      <c r="R19" s="1">
+        <v>277039</v>
+      </c>
+      <c r="S19" s="1">
+        <v>280963</v>
+      </c>
+      <c r="T19" s="1">
+        <v>284239</v>
+      </c>
+      <c r="U19" s="1">
+        <v>287196</v>
+      </c>
+      <c r="V19" s="1">
+        <v>290923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>85465</v>
+      </c>
+      <c r="C20" s="1">
+        <v>88169</v>
+      </c>
+      <c r="D20" s="1">
+        <v>91464</v>
+      </c>
+      <c r="E20" s="1">
+        <v>95323</v>
+      </c>
+      <c r="F20" s="1">
+        <v>99659</v>
+      </c>
+      <c r="G20" s="1">
+        <v>102522</v>
+      </c>
+      <c r="H20" s="1">
+        <v>105432</v>
+      </c>
+      <c r="I20" s="1">
+        <v>107208</v>
+      </c>
+      <c r="J20" s="1">
+        <v>109891</v>
+      </c>
+      <c r="K20" s="1">
+        <v>117705</v>
+      </c>
+      <c r="L20" s="1">
+        <v>128753</v>
+      </c>
+      <c r="M20" s="1">
+        <v>138391</v>
+      </c>
+      <c r="N20" s="1">
+        <v>147797</v>
+      </c>
+      <c r="O20" s="1">
+        <v>156931</v>
+      </c>
+      <c r="P20" s="1">
+        <v>162691</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>166263</v>
+      </c>
+      <c r="R20" s="1">
+        <v>171242</v>
+      </c>
+      <c r="S20" s="1">
+        <v>175981</v>
+      </c>
+      <c r="T20" s="1">
+        <v>179180</v>
+      </c>
+      <c r="U20" s="1">
+        <v>183123</v>
+      </c>
+      <c r="V20" s="1">
+        <v>188834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>38161</v>
+      </c>
+      <c r="H21" s="1">
+        <v>39950</v>
+      </c>
+      <c r="I21" s="1">
+        <v>42118</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44802</v>
+      </c>
+      <c r="K21" s="1">
+        <v>47272</v>
+      </c>
+      <c r="L21" s="1">
+        <v>49615</v>
+      </c>
+      <c r="M21" s="1">
+        <v>51141</v>
+      </c>
+      <c r="N21" s="1">
+        <v>52193</v>
+      </c>
+      <c r="O21" s="1">
+        <v>54113</v>
+      </c>
+      <c r="P21" s="1">
+        <v>59293</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>65529</v>
+      </c>
+      <c r="R21" s="1">
+        <v>71319</v>
+      </c>
+      <c r="S21" s="1">
+        <v>76564</v>
+      </c>
+      <c r="T21" s="1">
+        <v>81696</v>
+      </c>
+      <c r="U21" s="1">
+        <v>84948</v>
+      </c>
+      <c r="V21" s="1">
+        <v>88843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9172</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9529</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10034</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10290</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10659</v>
+      </c>
+      <c r="L22" s="1">
+        <v>11495</v>
+      </c>
+      <c r="M22" s="1">
+        <v>12249</v>
+      </c>
+      <c r="N22" s="1">
+        <v>13051</v>
+      </c>
+      <c r="O22" s="1">
+        <v>13879</v>
+      </c>
+      <c r="P22" s="1">
+        <v>14741</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>15348</v>
+      </c>
+      <c r="R22" s="1">
+        <v>16125</v>
+      </c>
+      <c r="S22" s="1">
+        <v>16592</v>
+      </c>
+      <c r="T22" s="1">
+        <v>17627</v>
+      </c>
+      <c r="U22" s="1">
+        <v>19448</v>
+      </c>
+      <c r="V22" s="1">
+        <v>22042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1273</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1383</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1455</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1513</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1593</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1684</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1737</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1823</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1833</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1965</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2066</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2272</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2471</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2644</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2790</v>
+      </c>
+      <c r="V23" s="1">
+        <v>3067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19245,67 +20823,67 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>11082903</v>
+        <v>7246897</v>
       </c>
       <c r="C2" s="1">
-        <v>11227651</v>
+        <v>7274611</v>
       </c>
       <c r="D2" s="1">
-        <v>11365901</v>
+        <v>7295935</v>
       </c>
       <c r="E2" s="1">
-        <v>11504759</v>
+        <v>7323250</v>
       </c>
       <c r="F2" s="1">
-        <v>11683290</v>
+        <v>7356951</v>
       </c>
       <c r="G2" s="1">
-        <v>11897534</v>
+        <v>7396456</v>
       </c>
       <c r="H2" s="1">
-        <v>12094174</v>
+        <v>7441656</v>
       </c>
       <c r="I2" s="1">
-        <v>12245039</v>
+        <v>7485753</v>
       </c>
       <c r="J2" s="1">
-        <v>12391421</v>
+        <v>7535590</v>
       </c>
       <c r="K2" s="1">
-        <v>12528663</v>
+        <v>7581476</v>
       </c>
       <c r="L2" s="1">
-        <v>12661878</v>
+        <v>7631966</v>
       </c>
       <c r="M2" s="1">
-        <v>12764806</v>
+        <v>7692916</v>
       </c>
       <c r="N2" s="1">
-        <v>12883583</v>
+        <v>7761725</v>
       </c>
       <c r="O2" s="1">
-        <v>12998345</v>
+        <v>7843383</v>
       </c>
       <c r="P2" s="1">
-        <v>13135778</v>
+        <v>7929222</v>
       </c>
       <c r="Q2" s="1">
-        <v>13261381</v>
+        <v>8005090</v>
       </c>
       <c r="R2" s="1">
-        <v>13390632</v>
+        <v>8061101</v>
       </c>
       <c r="S2" s="1">
-        <v>13510781</v>
+        <v>8110880</v>
       </c>
       <c r="T2" s="1">
-        <v>13617553</v>
+        <v>8150183</v>
       </c>
       <c r="U2" s="1">
-        <v>13707118</v>
+        <v>8175272</v>
       </c>
       <c r="V2" s="1">
-        <v>13875394</v>
+        <v>8225950</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19313,67 +20891,67 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>754173</v>
+        <v>459161</v>
       </c>
       <c r="C3" s="1">
-        <v>740561</v>
+        <v>443579</v>
       </c>
       <c r="D3" s="1">
-        <v>728431</v>
+        <v>426809</v>
       </c>
       <c r="E3" s="1">
-        <v>716675</v>
+        <v>410307</v>
       </c>
       <c r="F3" s="1">
-        <v>708739</v>
+        <v>395809</v>
       </c>
       <c r="G3" s="1">
-        <v>702270</v>
+        <v>381919</v>
       </c>
       <c r="H3" s="1">
-        <v>690420</v>
+        <v>374015</v>
       </c>
       <c r="I3" s="1">
-        <v>680378</v>
+        <v>370627</v>
       </c>
       <c r="J3" s="1">
-        <v>679461</v>
+        <v>372247</v>
       </c>
       <c r="K3" s="1">
-        <v>681077</v>
+        <v>372791</v>
       </c>
       <c r="L3" s="1">
-        <v>688154</v>
+        <v>377063</v>
       </c>
       <c r="M3" s="1">
-        <v>690624</v>
+        <v>385863</v>
       </c>
       <c r="N3" s="1">
-        <v>698506</v>
+        <v>398871</v>
       </c>
       <c r="O3" s="1">
-        <v>703657</v>
+        <v>413518</v>
       </c>
       <c r="P3" s="1">
-        <v>711568</v>
+        <v>427372</v>
       </c>
       <c r="Q3" s="1">
-        <v>718272</v>
+        <v>436646</v>
       </c>
       <c r="R3" s="1">
-        <v>720004</v>
+        <v>442489</v>
       </c>
       <c r="S3" s="1">
-        <v>718359</v>
+        <v>445178</v>
       </c>
       <c r="T3" s="1">
-        <v>716119</v>
+        <v>444542</v>
       </c>
       <c r="U3" s="1">
-        <v>713667</v>
+        <v>442758</v>
       </c>
       <c r="V3" s="1">
-        <v>718208</v>
+        <v>442489</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19381,67 +20959,67 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>759908</v>
+        <v>461079</v>
       </c>
       <c r="C4" s="1">
-        <v>772808</v>
+        <v>470570</v>
       </c>
       <c r="D4" s="1">
-        <v>786363</v>
+        <v>478582</v>
       </c>
       <c r="E4" s="1">
-        <v>791436</v>
+        <v>479327</v>
       </c>
       <c r="F4" s="1">
-        <v>794472</v>
+        <v>471933</v>
       </c>
       <c r="G4" s="1">
-        <v>797798</v>
+        <v>460772</v>
       </c>
       <c r="H4" s="1">
-        <v>794154</v>
+        <v>449336</v>
       </c>
       <c r="I4" s="1">
-        <v>781985</v>
+        <v>435411</v>
       </c>
       <c r="J4" s="1">
-        <v>766729</v>
+        <v>421406</v>
       </c>
       <c r="K4" s="1">
-        <v>749785</v>
+        <v>409075</v>
       </c>
       <c r="L4" s="1">
-        <v>731798</v>
+        <v>397237</v>
       </c>
       <c r="M4" s="1">
-        <v>722860</v>
+        <v>388117</v>
       </c>
       <c r="N4" s="1">
-        <v>717163</v>
+        <v>383127</v>
       </c>
       <c r="O4" s="1">
-        <v>716417</v>
+        <v>383057</v>
       </c>
       <c r="P4" s="1">
-        <v>714810</v>
+        <v>383184</v>
       </c>
       <c r="Q4" s="1">
-        <v>718811</v>
+        <v>389978</v>
       </c>
       <c r="R4" s="1">
-        <v>728203</v>
+        <v>400009</v>
       </c>
       <c r="S4" s="1">
-        <v>739997</v>
+        <v>413466</v>
       </c>
       <c r="T4" s="1">
-        <v>746093</v>
+        <v>426462</v>
       </c>
       <c r="U4" s="1">
-        <v>752382</v>
+        <v>438413</v>
       </c>
       <c r="V4" s="1">
-        <v>759846</v>
+        <v>446931</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19449,67 +21027,67 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>740403</v>
+        <v>460556</v>
       </c>
       <c r="C5" s="1">
-        <v>755090</v>
+        <v>451230</v>
       </c>
       <c r="D5" s="1">
-        <v>765784</v>
+        <v>446434</v>
       </c>
       <c r="E5" s="1">
-        <v>775997</v>
+        <v>445358</v>
       </c>
       <c r="F5" s="1">
-        <v>789378</v>
+        <v>452206</v>
       </c>
       <c r="G5" s="1">
-        <v>803872</v>
+        <v>463039</v>
       </c>
       <c r="H5" s="1">
-        <v>823182</v>
+        <v>476064</v>
       </c>
       <c r="I5" s="1">
-        <v>836776</v>
+        <v>486990</v>
       </c>
       <c r="J5" s="1">
-        <v>841389</v>
+        <v>490872</v>
       </c>
       <c r="K5" s="1">
-        <v>839154</v>
+        <v>486403</v>
       </c>
       <c r="L5" s="1">
-        <v>830734</v>
+        <v>476390</v>
       </c>
       <c r="M5" s="1">
-        <v>822263</v>
+        <v>463636</v>
       </c>
       <c r="N5" s="1">
-        <v>812633</v>
+        <v>448644</v>
       </c>
       <c r="O5" s="1">
-        <v>800471</v>
+        <v>433402</v>
       </c>
       <c r="P5" s="1">
-        <v>786095</v>
+        <v>419611</v>
       </c>
       <c r="Q5" s="1">
-        <v>769353</v>
+        <v>406758</v>
       </c>
       <c r="R5" s="1">
-        <v>759024</v>
+        <v>399771</v>
       </c>
       <c r="S5" s="1">
-        <v>753221</v>
+        <v>396491</v>
       </c>
       <c r="T5" s="1">
-        <v>754382</v>
+        <v>396713</v>
       </c>
       <c r="U5" s="1">
-        <v>754204</v>
+        <v>396354</v>
       </c>
       <c r="V5" s="1">
-        <v>761464</v>
+        <v>402574</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19517,67 +21095,67 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>720550</v>
+        <v>498968</v>
       </c>
       <c r="C6" s="1">
-        <v>730614</v>
+        <v>498179</v>
       </c>
       <c r="D6" s="1">
-        <v>747249</v>
+        <v>494369</v>
       </c>
       <c r="E6" s="1">
-        <v>764197</v>
+        <v>488196</v>
       </c>
       <c r="F6" s="1">
-        <v>785179</v>
+        <v>477441</v>
       </c>
       <c r="G6" s="1">
-        <v>805189</v>
+        <v>467515</v>
       </c>
       <c r="H6" s="1">
-        <v>820745</v>
+        <v>461622</v>
       </c>
       <c r="I6" s="1">
-        <v>829400</v>
+        <v>457617</v>
       </c>
       <c r="J6" s="1">
-        <v>841723</v>
+        <v>457823</v>
       </c>
       <c r="K6" s="1">
-        <v>857961</v>
+        <v>465340</v>
       </c>
       <c r="L6" s="1">
-        <v>873083</v>
+        <v>477917</v>
       </c>
       <c r="M6" s="1">
-        <v>878271</v>
+        <v>494486</v>
       </c>
       <c r="N6" s="1">
-        <v>886676</v>
+        <v>507004</v>
       </c>
       <c r="O6" s="1">
-        <v>890901</v>
+        <v>511494</v>
       </c>
       <c r="P6" s="1">
-        <v>894985</v>
+        <v>506654</v>
       </c>
       <c r="Q6" s="1">
-        <v>896013</v>
+        <v>495294</v>
       </c>
       <c r="R6" s="1">
-        <v>882312</v>
+        <v>479507</v>
       </c>
       <c r="S6" s="1">
-        <v>867139</v>
+        <v>464053</v>
       </c>
       <c r="T6" s="1">
-        <v>853570</v>
+        <v>448924</v>
       </c>
       <c r="U6" s="1">
-        <v>841992</v>
+        <v>437584</v>
       </c>
       <c r="V6" s="1">
-        <v>839916</v>
+        <v>429466</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19585,67 +21163,67 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>744615</v>
+        <v>470457</v>
       </c>
       <c r="C7" s="1">
-        <v>742452</v>
+        <v>477168</v>
       </c>
       <c r="D7" s="1">
-        <v>741437</v>
+        <v>484877</v>
       </c>
       <c r="E7" s="1">
-        <v>749792</v>
+        <v>495715</v>
       </c>
       <c r="F7" s="1">
-        <v>763384</v>
+        <v>506647</v>
       </c>
       <c r="G7" s="1">
-        <v>784373</v>
+        <v>515656</v>
       </c>
       <c r="H7" s="1">
-        <v>802149</v>
+        <v>516255</v>
       </c>
       <c r="I7" s="1">
-        <v>823926</v>
+        <v>513981</v>
       </c>
       <c r="J7" s="1">
-        <v>842760</v>
+        <v>511840</v>
       </c>
       <c r="K7" s="1">
-        <v>859989</v>
+        <v>505526</v>
       </c>
       <c r="L7" s="1">
-        <v>873578</v>
+        <v>498463</v>
       </c>
       <c r="M7" s="1">
-        <v>880047</v>
+        <v>490514</v>
       </c>
       <c r="N7" s="1">
-        <v>880516</v>
+        <v>486887</v>
       </c>
       <c r="O7" s="1">
-        <v>887758</v>
+        <v>491392</v>
       </c>
       <c r="P7" s="1">
-        <v>904290</v>
+        <v>504281</v>
       </c>
       <c r="Q7" s="1">
-        <v>919917</v>
+        <v>519733</v>
       </c>
       <c r="R7" s="1">
-        <v>935985</v>
+        <v>529654</v>
       </c>
       <c r="S7" s="1">
-        <v>946727</v>
+        <v>535977</v>
       </c>
       <c r="T7" s="1">
-        <v>950145</v>
+        <v>534831</v>
       </c>
       <c r="U7" s="1">
-        <v>946062</v>
+        <v>525377</v>
       </c>
       <c r="V7" s="1">
-        <v>954329</v>
+        <v>517216</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19653,67 +21231,67 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>823027</v>
+        <v>498650</v>
       </c>
       <c r="C8" s="1">
-        <v>816290</v>
+        <v>484835</v>
       </c>
       <c r="D8" s="1">
-        <v>808836</v>
+        <v>473986</v>
       </c>
       <c r="E8" s="1">
-        <v>802263</v>
+        <v>468840</v>
       </c>
       <c r="F8" s="1">
-        <v>802787</v>
+        <v>468908</v>
       </c>
       <c r="G8" s="1">
-        <v>806911</v>
+        <v>473546</v>
       </c>
       <c r="H8" s="1">
-        <v>811644</v>
+        <v>484325</v>
       </c>
       <c r="I8" s="1">
-        <v>812838</v>
+        <v>496029</v>
       </c>
       <c r="J8" s="1">
-        <v>818812</v>
+        <v>508669</v>
       </c>
       <c r="K8" s="1">
-        <v>822373</v>
+        <v>518736</v>
       </c>
       <c r="L8" s="1">
-        <v>829300</v>
+        <v>528088</v>
       </c>
       <c r="M8" s="1">
-        <v>838851</v>
+        <v>532361</v>
       </c>
       <c r="N8" s="1">
-        <v>854133</v>
+        <v>532888</v>
       </c>
       <c r="O8" s="1">
-        <v>866932</v>
+        <v>534301</v>
       </c>
       <c r="P8" s="1">
-        <v>882809</v>
+        <v>532187</v>
       </c>
       <c r="Q8" s="1">
-        <v>893030</v>
+        <v>526171</v>
       </c>
       <c r="R8" s="1">
-        <v>905924</v>
+        <v>518472</v>
       </c>
       <c r="S8" s="1">
-        <v>910422</v>
+        <v>513661</v>
       </c>
       <c r="T8" s="1">
-        <v>918599</v>
+        <v>509859</v>
       </c>
       <c r="U8" s="1">
-        <v>926168</v>
+        <v>510111</v>
       </c>
       <c r="V8" s="1">
-        <v>946087</v>
+        <v>518570</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19721,67 +21299,67 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>991565</v>
+        <v>623869</v>
       </c>
       <c r="C9" s="1">
-        <v>970320</v>
+        <v>600796</v>
       </c>
       <c r="D9" s="1">
-        <v>937581</v>
+        <v>568993</v>
       </c>
       <c r="E9" s="1">
-        <v>907564</v>
+        <v>540579</v>
       </c>
       <c r="F9" s="1">
-        <v>891629</v>
+        <v>516025</v>
       </c>
       <c r="G9" s="1">
-        <v>896326</v>
+        <v>503069</v>
       </c>
       <c r="H9" s="1">
-        <v>899841</v>
+        <v>493688</v>
       </c>
       <c r="I9" s="1">
-        <v>894928</v>
+        <v>488073</v>
       </c>
       <c r="J9" s="1">
-        <v>885703</v>
+        <v>485958</v>
       </c>
       <c r="K9" s="1">
-        <v>878406</v>
+        <v>486666</v>
       </c>
       <c r="L9" s="1">
-        <v>867356</v>
+        <v>489665</v>
       </c>
       <c r="M9" s="1">
-        <v>858103</v>
+        <v>501606</v>
       </c>
       <c r="N9" s="1">
-        <v>853673</v>
+        <v>516620</v>
       </c>
       <c r="O9" s="1">
-        <v>853404</v>
+        <v>533022</v>
       </c>
       <c r="P9" s="1">
-        <v>855996</v>
+        <v>549157</v>
       </c>
       <c r="Q9" s="1">
-        <v>865090</v>
+        <v>563018</v>
       </c>
       <c r="R9" s="1">
-        <v>876783</v>
+        <v>566600</v>
       </c>
       <c r="S9" s="1">
-        <v>891758</v>
+        <v>564411</v>
       </c>
       <c r="T9" s="1">
-        <v>903193</v>
+        <v>559068</v>
       </c>
       <c r="U9" s="1">
-        <v>913296</v>
+        <v>546098</v>
       </c>
       <c r="V9" s="1">
-        <v>932338</v>
+        <v>534815</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19789,67 +21367,67 @@
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>971298</v>
+        <v>659359</v>
       </c>
       <c r="C10" s="1">
-        <v>995477</v>
+        <v>656841</v>
       </c>
       <c r="D10" s="1">
-        <v>1018402</v>
+        <v>653671</v>
       </c>
       <c r="E10" s="1">
-        <v>1038385</v>
+        <v>648863</v>
       </c>
       <c r="F10" s="1">
-        <v>1050058</v>
+        <v>641620</v>
       </c>
       <c r="G10" s="1">
-        <v>1045513</v>
+        <v>623352</v>
       </c>
       <c r="H10" s="1">
-        <v>1032826</v>
+        <v>604307</v>
       </c>
       <c r="I10" s="1">
-        <v>1005229</v>
+        <v>578308</v>
       </c>
       <c r="J10" s="1">
-        <v>975649</v>
+        <v>553911</v>
       </c>
       <c r="K10" s="1">
-        <v>952893</v>
+        <v>531462</v>
       </c>
       <c r="L10" s="1">
-        <v>942137</v>
+        <v>518182</v>
       </c>
       <c r="M10" s="1">
-        <v>931428</v>
+        <v>508408</v>
       </c>
       <c r="N10" s="1">
-        <v>922358</v>
+        <v>504138</v>
       </c>
       <c r="O10" s="1">
-        <v>908306</v>
+        <v>504177</v>
       </c>
       <c r="P10" s="1">
-        <v>897909</v>
+        <v>510327</v>
       </c>
       <c r="Q10" s="1">
-        <v>883530</v>
+        <v>518425</v>
       </c>
       <c r="R10" s="1">
-        <v>881842</v>
+        <v>530276</v>
       </c>
       <c r="S10" s="1">
-        <v>881081</v>
+        <v>542917</v>
       </c>
       <c r="T10" s="1">
-        <v>882789</v>
+        <v>554149</v>
       </c>
       <c r="U10" s="1">
-        <v>882498</v>
+        <v>561354</v>
       </c>
       <c r="V10" s="1">
-        <v>894083</v>
+        <v>568116</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19857,67 +21435,67 @@
         <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>864259</v>
+        <v>600056</v>
       </c>
       <c r="C11" s="1">
-        <v>894292</v>
+        <v>615120</v>
       </c>
       <c r="D11" s="1">
-        <v>921572</v>
+        <v>629102</v>
       </c>
       <c r="E11" s="1">
-        <v>944716</v>
+        <v>638196</v>
       </c>
       <c r="F11" s="1">
-        <v>971430</v>
+        <v>644605</v>
       </c>
       <c r="G11" s="1">
-        <v>1005667</v>
+        <v>653318</v>
       </c>
       <c r="H11" s="1">
-        <v>1034138</v>
+        <v>653207</v>
       </c>
       <c r="I11" s="1">
-        <v>1060979</v>
+        <v>653687</v>
       </c>
       <c r="J11" s="1">
-        <v>1085562</v>
+        <v>652832</v>
       </c>
       <c r="K11" s="1">
-        <v>1097768</v>
+        <v>649836</v>
       </c>
       <c r="L11" s="1">
-        <v>1087451</v>
+        <v>633805</v>
       </c>
       <c r="M11" s="1">
-        <v>1060707</v>
+        <v>612213</v>
       </c>
       <c r="N11" s="1">
-        <v>1023581</v>
+        <v>585344</v>
       </c>
       <c r="O11" s="1">
-        <v>987031</v>
+        <v>561127</v>
       </c>
       <c r="P11" s="1">
-        <v>959127</v>
+        <v>541100</v>
       </c>
       <c r="Q11" s="1">
-        <v>949223</v>
+        <v>531710</v>
       </c>
       <c r="R11" s="1">
-        <v>944757</v>
+        <v>523711</v>
       </c>
       <c r="S11" s="1">
-        <v>938045</v>
+        <v>518269</v>
       </c>
       <c r="T11" s="1">
-        <v>927055</v>
+        <v>515528</v>
       </c>
       <c r="U11" s="1">
-        <v>917309</v>
+        <v>516780</v>
       </c>
       <c r="V11" s="1">
-        <v>907532</v>
+        <v>521293</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19925,67 +21503,67 @@
         <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>789653</v>
+        <v>540170</v>
       </c>
       <c r="C12" s="1">
-        <v>794248</v>
+        <v>546134</v>
       </c>
       <c r="D12" s="1">
-        <v>806701</v>
+        <v>553654</v>
       </c>
       <c r="E12" s="1">
-        <v>827380</v>
+        <v>564868</v>
       </c>
       <c r="F12" s="1">
-        <v>854391</v>
+        <v>579355</v>
       </c>
       <c r="G12" s="1">
-        <v>881682</v>
+        <v>590217</v>
       </c>
       <c r="H12" s="1">
-        <v>914074</v>
+        <v>606895</v>
       </c>
       <c r="I12" s="1">
-        <v>943414</v>
+        <v>622618</v>
       </c>
       <c r="J12" s="1">
-        <v>968850</v>
+        <v>632714</v>
       </c>
       <c r="K12" s="1">
-        <v>994528</v>
+        <v>639042</v>
       </c>
       <c r="L12" s="1">
-        <v>1024342</v>
+        <v>647044</v>
       </c>
       <c r="M12" s="1">
-        <v>1047402</v>
+        <v>649669</v>
       </c>
       <c r="N12" s="1">
-        <v>1073932</v>
+        <v>651777</v>
       </c>
       <c r="O12" s="1">
-        <v>1094063</v>
+        <v>650855</v>
       </c>
       <c r="P12" s="1">
-        <v>1099812</v>
+        <v>646008</v>
       </c>
       <c r="Q12" s="1">
-        <v>1081119</v>
+        <v>628151</v>
       </c>
       <c r="R12" s="1">
-        <v>1056981</v>
+        <v>611193</v>
       </c>
       <c r="S12" s="1">
-        <v>1024155</v>
+        <v>588051</v>
       </c>
       <c r="T12" s="1">
-        <v>992797</v>
+        <v>564404</v>
       </c>
       <c r="U12" s="1">
-        <v>968011</v>
+        <v>543589</v>
       </c>
       <c r="V12" s="1">
-        <v>960850</v>
+        <v>532643</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -19993,67 +21571,67 @@
         <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>608188</v>
+        <v>447440</v>
       </c>
       <c r="C13" s="1">
-        <v>656403</v>
+        <v>470117</v>
       </c>
       <c r="D13" s="1">
-        <v>694553</v>
+        <v>487895</v>
       </c>
       <c r="E13" s="1">
-        <v>727457</v>
+        <v>504845</v>
       </c>
       <c r="F13" s="1">
-        <v>761709</v>
+        <v>518492</v>
       </c>
       <c r="G13" s="1">
-        <v>791641</v>
+        <v>530422</v>
       </c>
       <c r="H13" s="1">
-        <v>797746</v>
+        <v>536233</v>
       </c>
       <c r="I13" s="1">
-        <v>810844</v>
+        <v>544483</v>
       </c>
       <c r="J13" s="1">
-        <v>833389</v>
+        <v>556713</v>
       </c>
       <c r="K13" s="1">
-        <v>860955</v>
+        <v>572854</v>
       </c>
       <c r="L13" s="1">
-        <v>887843</v>
+        <v>585160</v>
       </c>
       <c r="M13" s="1">
-        <v>918272</v>
+        <v>601735</v>
       </c>
       <c r="N13" s="1">
-        <v>946766</v>
+        <v>617524</v>
       </c>
       <c r="O13" s="1">
-        <v>972516</v>
+        <v>629320</v>
       </c>
       <c r="P13" s="1">
-        <v>998740</v>
+        <v>638419</v>
       </c>
       <c r="Q13" s="1">
-        <v>1028247</v>
+        <v>649132</v>
       </c>
       <c r="R13" s="1">
-        <v>1047592</v>
+        <v>650730</v>
       </c>
       <c r="S13" s="1">
-        <v>1068422</v>
+        <v>650842</v>
       </c>
       <c r="T13" s="1">
-        <v>1085394</v>
+        <v>648820</v>
       </c>
       <c r="U13" s="1">
-        <v>1089706</v>
+        <v>644545</v>
       </c>
       <c r="V13" s="1">
-        <v>1075341</v>
+        <v>629208</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20061,67 +21639,67 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>500697</v>
+        <v>346365</v>
       </c>
       <c r="C14" s="1">
-        <v>515136</v>
+        <v>361831</v>
       </c>
       <c r="D14" s="1">
-        <v>534945</v>
+        <v>379917</v>
       </c>
       <c r="E14" s="1">
-        <v>553709</v>
+        <v>397714</v>
       </c>
       <c r="F14" s="1">
-        <v>573195</v>
+        <v>417306</v>
       </c>
       <c r="G14" s="1">
-        <v>600579</v>
+        <v>436368</v>
       </c>
       <c r="H14" s="1">
-        <v>650017</v>
+        <v>458976</v>
       </c>
       <c r="I14" s="1">
-        <v>689169</v>
+        <v>476711</v>
       </c>
       <c r="J14" s="1">
-        <v>722182</v>
+        <v>492709</v>
       </c>
       <c r="K14" s="1">
-        <v>754674</v>
+        <v>505044</v>
       </c>
       <c r="L14" s="1">
-        <v>782581</v>
+        <v>516291</v>
       </c>
       <c r="M14" s="1">
-        <v>787885</v>
+        <v>524163</v>
       </c>
       <c r="N14" s="1">
-        <v>801973</v>
+        <v>534466</v>
       </c>
       <c r="O14" s="1">
-        <v>824532</v>
+        <v>547114</v>
       </c>
       <c r="P14" s="1">
-        <v>852843</v>
+        <v>563317</v>
       </c>
       <c r="Q14" s="1">
-        <v>878821</v>
+        <v>575798</v>
       </c>
       <c r="R14" s="1">
-        <v>908006</v>
+        <v>593539</v>
       </c>
       <c r="S14" s="1">
-        <v>936047</v>
+        <v>611340</v>
       </c>
       <c r="T14" s="1">
-        <v>959982</v>
+        <v>623856</v>
       </c>
       <c r="U14" s="1">
-        <v>982043</v>
+        <v>632633</v>
       </c>
       <c r="V14" s="1">
-        <v>1007466</v>
+        <v>642195</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20129,67 +21707,67 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>458965</v>
+        <v>311783</v>
       </c>
       <c r="C15" s="1">
-        <v>459482</v>
+        <v>308095</v>
       </c>
       <c r="D15" s="1">
-        <v>462079</v>
+        <v>308413</v>
       </c>
       <c r="E15" s="1">
-        <v>469225</v>
+        <v>314305</v>
       </c>
       <c r="F15" s="1">
-        <v>475942</v>
+        <v>321222</v>
       </c>
       <c r="G15" s="1">
-        <v>486408</v>
+        <v>333012</v>
       </c>
       <c r="H15" s="1">
-        <v>503276</v>
+        <v>348250</v>
       </c>
       <c r="I15" s="1">
-        <v>524872</v>
+        <v>366255</v>
       </c>
       <c r="J15" s="1">
-        <v>546355</v>
+        <v>384909</v>
       </c>
       <c r="K15" s="1">
-        <v>566281</v>
+        <v>405684</v>
       </c>
       <c r="L15" s="1">
-        <v>591893</v>
+        <v>424716</v>
       </c>
       <c r="M15" s="1">
-        <v>637955</v>
+        <v>445968</v>
       </c>
       <c r="N15" s="1">
-        <v>675920</v>
+        <v>463251</v>
       </c>
       <c r="O15" s="1">
-        <v>709028</v>
+        <v>480557</v>
       </c>
       <c r="P15" s="1">
-        <v>744059</v>
+        <v>495052</v>
       </c>
       <c r="Q15" s="1">
-        <v>771125</v>
+        <v>508051</v>
       </c>
       <c r="R15" s="1">
-        <v>774004</v>
+        <v>513613</v>
       </c>
       <c r="S15" s="1">
-        <v>786729</v>
+        <v>521912</v>
       </c>
       <c r="T15" s="1">
-        <v>806510</v>
+        <v>533964</v>
       </c>
       <c r="U15" s="1">
-        <v>831612</v>
+        <v>550147</v>
       </c>
       <c r="V15" s="1">
-        <v>856710</v>
+        <v>563494</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20197,67 +21775,67 @@
         <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>431046</v>
+        <v>287059</v>
       </c>
       <c r="C16" s="1">
-        <v>434894</v>
+        <v>291947</v>
       </c>
       <c r="D16" s="1">
-        <v>436852</v>
+        <v>293751</v>
       </c>
       <c r="E16" s="1">
-        <v>437277</v>
+        <v>293687</v>
       </c>
       <c r="F16" s="1">
-        <v>435923</v>
+        <v>292614</v>
       </c>
       <c r="G16" s="1">
-        <v>435654</v>
+        <v>291925</v>
       </c>
       <c r="H16" s="1">
-        <v>436865</v>
+        <v>288450</v>
       </c>
       <c r="I16" s="1">
-        <v>440391</v>
+        <v>288819</v>
       </c>
       <c r="J16" s="1">
-        <v>449060</v>
+        <v>294235</v>
       </c>
       <c r="K16" s="1">
-        <v>455816</v>
+        <v>300627</v>
       </c>
       <c r="L16" s="1">
-        <v>468309</v>
+        <v>312895</v>
       </c>
       <c r="M16" s="1">
-        <v>484815</v>
+        <v>329522</v>
       </c>
       <c r="N16" s="1">
-        <v>505594</v>
+        <v>347698</v>
       </c>
       <c r="O16" s="1">
-        <v>525615</v>
+        <v>365961</v>
       </c>
       <c r="P16" s="1">
-        <v>545176</v>
+        <v>385616</v>
       </c>
       <c r="Q16" s="1">
-        <v>570269</v>
+        <v>403721</v>
       </c>
       <c r="R16" s="1">
-        <v>616006</v>
+        <v>424941</v>
       </c>
       <c r="S16" s="1">
-        <v>654852</v>
+        <v>442242</v>
       </c>
       <c r="T16" s="1">
-        <v>686061</v>
+        <v>458409</v>
       </c>
       <c r="U16" s="1">
-        <v>716078</v>
+        <v>470811</v>
       </c>
       <c r="V16" s="1">
-        <v>739710</v>
+        <v>482961</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20265,67 +21843,67 @@
         <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>374095</v>
+        <v>237016</v>
       </c>
       <c r="C17" s="1">
-        <v>377436</v>
+        <v>240247</v>
       </c>
       <c r="D17" s="1">
-        <v>381460</v>
+        <v>245157</v>
       </c>
       <c r="E17" s="1">
-        <v>383014</v>
+        <v>248523</v>
       </c>
       <c r="F17" s="1">
-        <v>387138</v>
+        <v>253241</v>
       </c>
       <c r="G17" s="1">
-        <v>392506</v>
+        <v>257444</v>
       </c>
       <c r="H17" s="1">
-        <v>396991</v>
+        <v>261951</v>
       </c>
       <c r="I17" s="1">
-        <v>399343</v>
+        <v>263650</v>
       </c>
       <c r="J17" s="1">
-        <v>400754</v>
+        <v>263823</v>
       </c>
       <c r="K17" s="1">
-        <v>400448</v>
+        <v>263237</v>
       </c>
       <c r="L17" s="1">
-        <v>400991</v>
+        <v>263084</v>
       </c>
       <c r="M17" s="1">
-        <v>403361</v>
+        <v>261908</v>
       </c>
       <c r="N17" s="1">
-        <v>409207</v>
+        <v>264217</v>
       </c>
       <c r="O17" s="1">
-        <v>419815</v>
+        <v>270858</v>
       </c>
       <c r="P17" s="1">
-        <v>429734</v>
+        <v>279215</v>
       </c>
       <c r="Q17" s="1">
-        <v>441675</v>
+        <v>291818</v>
       </c>
       <c r="R17" s="1">
-        <v>455534</v>
+        <v>304868</v>
       </c>
       <c r="S17" s="1">
-        <v>474736</v>
+        <v>319884</v>
       </c>
       <c r="T17" s="1">
-        <v>493339</v>
+        <v>335437</v>
       </c>
       <c r="U17" s="1">
-        <v>510659</v>
+        <v>352273</v>
       </c>
       <c r="V17" s="1">
-        <v>534238</v>
+        <v>369265</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20333,67 +21911,67 @@
         <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>255651</v>
+        <v>162796</v>
       </c>
       <c r="C18" s="1">
-        <v>271255</v>
+        <v>170881</v>
       </c>
       <c r="D18" s="1">
-        <v>287641</v>
+        <v>177962</v>
       </c>
       <c r="E18" s="1">
-        <v>302618</v>
+        <v>185990</v>
       </c>
       <c r="F18" s="1">
-        <v>310744</v>
+        <v>192846</v>
       </c>
       <c r="G18" s="1">
-        <v>316610</v>
+        <v>198583</v>
       </c>
       <c r="H18" s="1">
-        <v>322110</v>
+        <v>202063</v>
       </c>
       <c r="I18" s="1">
-        <v>327646</v>
+        <v>206784</v>
       </c>
       <c r="J18" s="1">
-        <v>330464</v>
+        <v>209687</v>
       </c>
       <c r="K18" s="1">
-        <v>334753</v>
+        <v>213468</v>
       </c>
       <c r="L18" s="1">
-        <v>339814</v>
+        <v>217302</v>
       </c>
       <c r="M18" s="1">
-        <v>344092</v>
+        <v>223245</v>
       </c>
       <c r="N18" s="1">
-        <v>347720</v>
+        <v>227039</v>
       </c>
       <c r="O18" s="1">
-        <v>350343</v>
+        <v>229017</v>
       </c>
       <c r="P18" s="1">
-        <v>353355</v>
+        <v>230168</v>
       </c>
       <c r="Q18" s="1">
-        <v>355908</v>
+        <v>230770</v>
       </c>
       <c r="R18" s="1">
-        <v>359678</v>
+        <v>230153</v>
       </c>
       <c r="S18" s="1">
-        <v>366520</v>
+        <v>231768</v>
       </c>
       <c r="T18" s="1">
-        <v>376139</v>
+        <v>237065</v>
       </c>
       <c r="U18" s="1">
-        <v>383926</v>
+        <v>242819</v>
       </c>
       <c r="V18" s="1">
-        <v>393567</v>
+        <v>252546</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20401,67 +21979,67 @@
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>167329</v>
+        <v>104932</v>
       </c>
       <c r="C19" s="1">
-        <v>169758</v>
+        <v>106945</v>
       </c>
       <c r="D19" s="1">
-        <v>170414</v>
+        <v>109073</v>
       </c>
       <c r="E19" s="1">
-        <v>172154</v>
+        <v>111205</v>
       </c>
       <c r="F19" s="1">
-        <v>180580</v>
+        <v>115816</v>
       </c>
       <c r="G19" s="1">
-        <v>193407</v>
+        <v>121813</v>
       </c>
       <c r="H19" s="1">
-        <v>207702</v>
+        <v>128735</v>
       </c>
       <c r="I19" s="1">
-        <v>222106</v>
+        <v>135022</v>
       </c>
       <c r="J19" s="1">
-        <v>236083</v>
+        <v>141511</v>
       </c>
       <c r="K19" s="1">
-        <v>244573</v>
+        <v>147652</v>
       </c>
       <c r="L19" s="1">
-        <v>250967</v>
+        <v>153270</v>
       </c>
       <c r="M19" s="1">
-        <v>254352</v>
+        <v>156832</v>
       </c>
       <c r="N19" s="1">
-        <v>258368</v>
+        <v>161648</v>
       </c>
       <c r="O19" s="1">
-        <v>260800</v>
+        <v>165984</v>
       </c>
       <c r="P19" s="1">
-        <v>265780</v>
+        <v>170991</v>
       </c>
       <c r="Q19" s="1">
-        <v>271772</v>
+        <v>175911</v>
       </c>
       <c r="R19" s="1">
-        <v>277039</v>
+        <v>180126</v>
       </c>
       <c r="S19" s="1">
-        <v>280963</v>
+        <v>182343</v>
       </c>
       <c r="T19" s="1">
-        <v>284239</v>
+        <v>183517</v>
       </c>
       <c r="U19" s="1">
-        <v>287196</v>
+        <v>183407</v>
       </c>
       <c r="V19" s="1">
-        <v>290923</v>
+        <v>183822</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20469,67 +22047,67 @@
         <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>85465</v>
+        <v>52993</v>
       </c>
       <c r="C20" s="1">
-        <v>88169</v>
+        <v>54807</v>
       </c>
       <c r="D20" s="1">
-        <v>91464</v>
+        <v>56942</v>
       </c>
       <c r="E20" s="1">
-        <v>95323</v>
+        <v>59372</v>
       </c>
       <c r="F20" s="1">
-        <v>99659</v>
+        <v>62126</v>
       </c>
       <c r="G20" s="1">
-        <v>102522</v>
+        <v>64486</v>
       </c>
       <c r="H20" s="1">
-        <v>105432</v>
+        <v>65794</v>
       </c>
       <c r="I20" s="1">
-        <v>107208</v>
+        <v>67661</v>
       </c>
       <c r="J20" s="1">
-        <v>109891</v>
+        <v>69664</v>
       </c>
       <c r="K20" s="1">
-        <v>117705</v>
+        <v>72919</v>
       </c>
       <c r="L20" s="1">
-        <v>128753</v>
+        <v>78511</v>
       </c>
       <c r="M20" s="1">
-        <v>138391</v>
+        <v>83877</v>
       </c>
       <c r="N20" s="1">
-        <v>147797</v>
+        <v>89121</v>
       </c>
       <c r="O20" s="1">
-        <v>156931</v>
+        <v>94353</v>
       </c>
       <c r="P20" s="1">
-        <v>162691</v>
+        <v>99353</v>
       </c>
       <c r="Q20" s="1">
-        <v>166263</v>
+        <v>103113</v>
       </c>
       <c r="R20" s="1">
-        <v>171242</v>
+        <v>106530</v>
       </c>
       <c r="S20" s="1">
-        <v>175981</v>
+        <v>109874</v>
       </c>
       <c r="T20" s="1">
-        <v>179180</v>
+        <v>112917</v>
       </c>
       <c r="U20" s="1">
-        <v>183123</v>
+        <v>115469</v>
       </c>
       <c r="V20" s="1">
-        <v>188834</v>
+        <v>119161</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20552,52 +22130,52 @@
         <v>28</v>
       </c>
       <c r="G21" s="1">
-        <v>38161</v>
+        <v>23752</v>
       </c>
       <c r="H21" s="1">
-        <v>39950</v>
+        <v>25070</v>
       </c>
       <c r="I21" s="1">
-        <v>42118</v>
+        <v>26158</v>
       </c>
       <c r="J21" s="1">
-        <v>44802</v>
+        <v>26955</v>
       </c>
       <c r="K21" s="1">
-        <v>47272</v>
+        <v>27720</v>
       </c>
       <c r="L21" s="1">
-        <v>49615</v>
+        <v>29056</v>
       </c>
       <c r="M21" s="1">
-        <v>51141</v>
+        <v>30510</v>
       </c>
       <c r="N21" s="1">
-        <v>52193</v>
+        <v>32458</v>
       </c>
       <c r="O21" s="1">
-        <v>54113</v>
+        <v>34281</v>
       </c>
       <c r="P21" s="1">
-        <v>59293</v>
+        <v>36826</v>
       </c>
       <c r="Q21" s="1">
-        <v>65529</v>
+        <v>39761</v>
       </c>
       <c r="R21" s="1">
-        <v>71319</v>
+        <v>43120</v>
       </c>
       <c r="S21" s="1">
-        <v>76564</v>
+        <v>45803</v>
       </c>
       <c r="T21" s="1">
-        <v>81696</v>
+        <v>48624</v>
       </c>
       <c r="U21" s="1">
-        <v>84948</v>
+        <v>50782</v>
       </c>
       <c r="V21" s="1">
-        <v>88843</v>
+        <v>53711</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20620,52 +22198,52 @@
         <v>28</v>
       </c>
       <c r="G22" s="1">
-        <v>9172</v>
+        <v>5475</v>
       </c>
       <c r="H22" s="1">
-        <v>9529</v>
+        <v>5607</v>
       </c>
       <c r="I22" s="1">
-        <v>10034</v>
+        <v>6013</v>
       </c>
       <c r="J22" s="1">
-        <v>10290</v>
+        <v>6210</v>
       </c>
       <c r="K22" s="1">
-        <v>10659</v>
+        <v>6508</v>
       </c>
       <c r="L22" s="1">
-        <v>11495</v>
+        <v>6978</v>
       </c>
       <c r="M22" s="1">
+        <v>7326</v>
+      </c>
+      <c r="N22" s="1">
+        <v>7896</v>
+      </c>
+      <c r="O22" s="1">
+        <v>8383</v>
+      </c>
+      <c r="P22" s="1">
+        <v>9023</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>9739</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10305</v>
+      </c>
+      <c r="S22" s="1">
+        <v>10884</v>
+      </c>
+      <c r="T22" s="1">
+        <v>11477</v>
+      </c>
+      <c r="U22" s="1">
         <v>12249</v>
       </c>
-      <c r="N22" s="1">
-        <v>13051</v>
-      </c>
-      <c r="O22" s="1">
-        <v>13879</v>
-      </c>
-      <c r="P22" s="1">
-        <v>14741</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>15348</v>
-      </c>
-      <c r="R22" s="1">
-        <v>16125</v>
-      </c>
-      <c r="S22" s="1">
-        <v>16592</v>
-      </c>
-      <c r="T22" s="1">
-        <v>17627</v>
-      </c>
-      <c r="U22" s="1">
-        <v>19448</v>
-      </c>
       <c r="V22" s="1">
-        <v>22042</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -20687,53 +22265,53 @@
       <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="1">
-        <v>1273</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1383</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1455</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1513</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1593</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1684</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1737</v>
+      <c r="G23">
+        <v>773</v>
+      </c>
+      <c r="H23">
+        <v>813</v>
+      </c>
+      <c r="I23">
+        <v>856</v>
+      </c>
+      <c r="J23">
+        <v>902</v>
+      </c>
+      <c r="K23">
+        <v>886</v>
+      </c>
+      <c r="L23">
+        <v>849</v>
+      </c>
+      <c r="M23">
+        <v>957</v>
       </c>
       <c r="N23" s="1">
-        <v>1823</v>
+        <v>1107</v>
       </c>
       <c r="O23" s="1">
-        <v>1833</v>
+        <v>1210</v>
       </c>
       <c r="P23" s="1">
-        <v>1965</v>
+        <v>1361</v>
       </c>
       <c r="Q23" s="1">
-        <v>2066</v>
+        <v>1392</v>
       </c>
       <c r="R23" s="1">
-        <v>2272</v>
+        <v>1494</v>
       </c>
       <c r="S23" s="1">
-        <v>2471</v>
+        <v>1514</v>
       </c>
       <c r="T23" s="1">
-        <v>2644</v>
+        <v>1617</v>
       </c>
       <c r="U23" s="1">
-        <v>2790</v>
+        <v>1719</v>
       </c>
       <c r="V23" s="1">
-        <v>3067</v>
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
@@ -20741,8 +22319,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20824,1585 +22402,6 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>7246897</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7274611</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7295935</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7323250</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7356951</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7396456</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7441656</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7485753</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7535590</v>
-      </c>
-      <c r="K2" s="1">
-        <v>7581476</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7631966</v>
-      </c>
-      <c r="M2" s="1">
-        <v>7692916</v>
-      </c>
-      <c r="N2" s="1">
-        <v>7761725</v>
-      </c>
-      <c r="O2" s="1">
-        <v>7843383</v>
-      </c>
-      <c r="P2" s="1">
-        <v>7929222</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>8005090</v>
-      </c>
-      <c r="R2" s="1">
-        <v>8061101</v>
-      </c>
-      <c r="S2" s="1">
-        <v>8110880</v>
-      </c>
-      <c r="T2" s="1">
-        <v>8150183</v>
-      </c>
-      <c r="U2" s="1">
-        <v>8175272</v>
-      </c>
-      <c r="V2" s="1">
-        <v>8225950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>459161</v>
-      </c>
-      <c r="C3" s="1">
-        <v>443579</v>
-      </c>
-      <c r="D3" s="1">
-        <v>426809</v>
-      </c>
-      <c r="E3" s="1">
-        <v>410307</v>
-      </c>
-      <c r="F3" s="1">
-        <v>395809</v>
-      </c>
-      <c r="G3" s="1">
-        <v>381919</v>
-      </c>
-      <c r="H3" s="1">
-        <v>374015</v>
-      </c>
-      <c r="I3" s="1">
-        <v>370627</v>
-      </c>
-      <c r="J3" s="1">
-        <v>372247</v>
-      </c>
-      <c r="K3" s="1">
-        <v>372791</v>
-      </c>
-      <c r="L3" s="1">
-        <v>377063</v>
-      </c>
-      <c r="M3" s="1">
-        <v>385863</v>
-      </c>
-      <c r="N3" s="1">
-        <v>398871</v>
-      </c>
-      <c r="O3" s="1">
-        <v>413518</v>
-      </c>
-      <c r="P3" s="1">
-        <v>427372</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>436646</v>
-      </c>
-      <c r="R3" s="1">
-        <v>442489</v>
-      </c>
-      <c r="S3" s="1">
-        <v>445178</v>
-      </c>
-      <c r="T3" s="1">
-        <v>444542</v>
-      </c>
-      <c r="U3" s="1">
-        <v>442758</v>
-      </c>
-      <c r="V3" s="1">
-        <v>442489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>461079</v>
-      </c>
-      <c r="C4" s="1">
-        <v>470570</v>
-      </c>
-      <c r="D4" s="1">
-        <v>478582</v>
-      </c>
-      <c r="E4" s="1">
-        <v>479327</v>
-      </c>
-      <c r="F4" s="1">
-        <v>471933</v>
-      </c>
-      <c r="G4" s="1">
-        <v>460772</v>
-      </c>
-      <c r="H4" s="1">
-        <v>449336</v>
-      </c>
-      <c r="I4" s="1">
-        <v>435411</v>
-      </c>
-      <c r="J4" s="1">
-        <v>421406</v>
-      </c>
-      <c r="K4" s="1">
-        <v>409075</v>
-      </c>
-      <c r="L4" s="1">
-        <v>397237</v>
-      </c>
-      <c r="M4" s="1">
-        <v>388117</v>
-      </c>
-      <c r="N4" s="1">
-        <v>383127</v>
-      </c>
-      <c r="O4" s="1">
-        <v>383057</v>
-      </c>
-      <c r="P4" s="1">
-        <v>383184</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>389978</v>
-      </c>
-      <c r="R4" s="1">
-        <v>400009</v>
-      </c>
-      <c r="S4" s="1">
-        <v>413466</v>
-      </c>
-      <c r="T4" s="1">
-        <v>426462</v>
-      </c>
-      <c r="U4" s="1">
-        <v>438413</v>
-      </c>
-      <c r="V4" s="1">
-        <v>446931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>460556</v>
-      </c>
-      <c r="C5" s="1">
-        <v>451230</v>
-      </c>
-      <c r="D5" s="1">
-        <v>446434</v>
-      </c>
-      <c r="E5" s="1">
-        <v>445358</v>
-      </c>
-      <c r="F5" s="1">
-        <v>452206</v>
-      </c>
-      <c r="G5" s="1">
-        <v>463039</v>
-      </c>
-      <c r="H5" s="1">
-        <v>476064</v>
-      </c>
-      <c r="I5" s="1">
-        <v>486990</v>
-      </c>
-      <c r="J5" s="1">
-        <v>490872</v>
-      </c>
-      <c r="K5" s="1">
-        <v>486403</v>
-      </c>
-      <c r="L5" s="1">
-        <v>476390</v>
-      </c>
-      <c r="M5" s="1">
-        <v>463636</v>
-      </c>
-      <c r="N5" s="1">
-        <v>448644</v>
-      </c>
-      <c r="O5" s="1">
-        <v>433402</v>
-      </c>
-      <c r="P5" s="1">
-        <v>419611</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>406758</v>
-      </c>
-      <c r="R5" s="1">
-        <v>399771</v>
-      </c>
-      <c r="S5" s="1">
-        <v>396491</v>
-      </c>
-      <c r="T5" s="1">
-        <v>396713</v>
-      </c>
-      <c r="U5" s="1">
-        <v>396354</v>
-      </c>
-      <c r="V5" s="1">
-        <v>402574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>498968</v>
-      </c>
-      <c r="C6" s="1">
-        <v>498179</v>
-      </c>
-      <c r="D6" s="1">
-        <v>494369</v>
-      </c>
-      <c r="E6" s="1">
-        <v>488196</v>
-      </c>
-      <c r="F6" s="1">
-        <v>477441</v>
-      </c>
-      <c r="G6" s="1">
-        <v>467515</v>
-      </c>
-      <c r="H6" s="1">
-        <v>461622</v>
-      </c>
-      <c r="I6" s="1">
-        <v>457617</v>
-      </c>
-      <c r="J6" s="1">
-        <v>457823</v>
-      </c>
-      <c r="K6" s="1">
-        <v>465340</v>
-      </c>
-      <c r="L6" s="1">
-        <v>477917</v>
-      </c>
-      <c r="M6" s="1">
-        <v>494486</v>
-      </c>
-      <c r="N6" s="1">
-        <v>507004</v>
-      </c>
-      <c r="O6" s="1">
-        <v>511494</v>
-      </c>
-      <c r="P6" s="1">
-        <v>506654</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>495294</v>
-      </c>
-      <c r="R6" s="1">
-        <v>479507</v>
-      </c>
-      <c r="S6" s="1">
-        <v>464053</v>
-      </c>
-      <c r="T6" s="1">
-        <v>448924</v>
-      </c>
-      <c r="U6" s="1">
-        <v>437584</v>
-      </c>
-      <c r="V6" s="1">
-        <v>429466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>470457</v>
-      </c>
-      <c r="C7" s="1">
-        <v>477168</v>
-      </c>
-      <c r="D7" s="1">
-        <v>484877</v>
-      </c>
-      <c r="E7" s="1">
-        <v>495715</v>
-      </c>
-      <c r="F7" s="1">
-        <v>506647</v>
-      </c>
-      <c r="G7" s="1">
-        <v>515656</v>
-      </c>
-      <c r="H7" s="1">
-        <v>516255</v>
-      </c>
-      <c r="I7" s="1">
-        <v>513981</v>
-      </c>
-      <c r="J7" s="1">
-        <v>511840</v>
-      </c>
-      <c r="K7" s="1">
-        <v>505526</v>
-      </c>
-      <c r="L7" s="1">
-        <v>498463</v>
-      </c>
-      <c r="M7" s="1">
-        <v>490514</v>
-      </c>
-      <c r="N7" s="1">
-        <v>486887</v>
-      </c>
-      <c r="O7" s="1">
-        <v>491392</v>
-      </c>
-      <c r="P7" s="1">
-        <v>504281</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>519733</v>
-      </c>
-      <c r="R7" s="1">
-        <v>529654</v>
-      </c>
-      <c r="S7" s="1">
-        <v>535977</v>
-      </c>
-      <c r="T7" s="1">
-        <v>534831</v>
-      </c>
-      <c r="U7" s="1">
-        <v>525377</v>
-      </c>
-      <c r="V7" s="1">
-        <v>517216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>498650</v>
-      </c>
-      <c r="C8" s="1">
-        <v>484835</v>
-      </c>
-      <c r="D8" s="1">
-        <v>473986</v>
-      </c>
-      <c r="E8" s="1">
-        <v>468840</v>
-      </c>
-      <c r="F8" s="1">
-        <v>468908</v>
-      </c>
-      <c r="G8" s="1">
-        <v>473546</v>
-      </c>
-      <c r="H8" s="1">
-        <v>484325</v>
-      </c>
-      <c r="I8" s="1">
-        <v>496029</v>
-      </c>
-      <c r="J8" s="1">
-        <v>508669</v>
-      </c>
-      <c r="K8" s="1">
-        <v>518736</v>
-      </c>
-      <c r="L8" s="1">
-        <v>528088</v>
-      </c>
-      <c r="M8" s="1">
-        <v>532361</v>
-      </c>
-      <c r="N8" s="1">
-        <v>532888</v>
-      </c>
-      <c r="O8" s="1">
-        <v>534301</v>
-      </c>
-      <c r="P8" s="1">
-        <v>532187</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>526171</v>
-      </c>
-      <c r="R8" s="1">
-        <v>518472</v>
-      </c>
-      <c r="S8" s="1">
-        <v>513661</v>
-      </c>
-      <c r="T8" s="1">
-        <v>509859</v>
-      </c>
-      <c r="U8" s="1">
-        <v>510111</v>
-      </c>
-      <c r="V8" s="1">
-        <v>518570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>623869</v>
-      </c>
-      <c r="C9" s="1">
-        <v>600796</v>
-      </c>
-      <c r="D9" s="1">
-        <v>568993</v>
-      </c>
-      <c r="E9" s="1">
-        <v>540579</v>
-      </c>
-      <c r="F9" s="1">
-        <v>516025</v>
-      </c>
-      <c r="G9" s="1">
-        <v>503069</v>
-      </c>
-      <c r="H9" s="1">
-        <v>493688</v>
-      </c>
-      <c r="I9" s="1">
-        <v>488073</v>
-      </c>
-      <c r="J9" s="1">
-        <v>485958</v>
-      </c>
-      <c r="K9" s="1">
-        <v>486666</v>
-      </c>
-      <c r="L9" s="1">
-        <v>489665</v>
-      </c>
-      <c r="M9" s="1">
-        <v>501606</v>
-      </c>
-      <c r="N9" s="1">
-        <v>516620</v>
-      </c>
-      <c r="O9" s="1">
-        <v>533022</v>
-      </c>
-      <c r="P9" s="1">
-        <v>549157</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>563018</v>
-      </c>
-      <c r="R9" s="1">
-        <v>566600</v>
-      </c>
-      <c r="S9" s="1">
-        <v>564411</v>
-      </c>
-      <c r="T9" s="1">
-        <v>559068</v>
-      </c>
-      <c r="U9" s="1">
-        <v>546098</v>
-      </c>
-      <c r="V9" s="1">
-        <v>534815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>659359</v>
-      </c>
-      <c r="C10" s="1">
-        <v>656841</v>
-      </c>
-      <c r="D10" s="1">
-        <v>653671</v>
-      </c>
-      <c r="E10" s="1">
-        <v>648863</v>
-      </c>
-      <c r="F10" s="1">
-        <v>641620</v>
-      </c>
-      <c r="G10" s="1">
-        <v>623352</v>
-      </c>
-      <c r="H10" s="1">
-        <v>604307</v>
-      </c>
-      <c r="I10" s="1">
-        <v>578308</v>
-      </c>
-      <c r="J10" s="1">
-        <v>553911</v>
-      </c>
-      <c r="K10" s="1">
-        <v>531462</v>
-      </c>
-      <c r="L10" s="1">
-        <v>518182</v>
-      </c>
-      <c r="M10" s="1">
-        <v>508408</v>
-      </c>
-      <c r="N10" s="1">
-        <v>504138</v>
-      </c>
-      <c r="O10" s="1">
-        <v>504177</v>
-      </c>
-      <c r="P10" s="1">
-        <v>510327</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>518425</v>
-      </c>
-      <c r="R10" s="1">
-        <v>530276</v>
-      </c>
-      <c r="S10" s="1">
-        <v>542917</v>
-      </c>
-      <c r="T10" s="1">
-        <v>554149</v>
-      </c>
-      <c r="U10" s="1">
-        <v>561354</v>
-      </c>
-      <c r="V10" s="1">
-        <v>568116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>600056</v>
-      </c>
-      <c r="C11" s="1">
-        <v>615120</v>
-      </c>
-      <c r="D11" s="1">
-        <v>629102</v>
-      </c>
-      <c r="E11" s="1">
-        <v>638196</v>
-      </c>
-      <c r="F11" s="1">
-        <v>644605</v>
-      </c>
-      <c r="G11" s="1">
-        <v>653318</v>
-      </c>
-      <c r="H11" s="1">
-        <v>653207</v>
-      </c>
-      <c r="I11" s="1">
-        <v>653687</v>
-      </c>
-      <c r="J11" s="1">
-        <v>652832</v>
-      </c>
-      <c r="K11" s="1">
-        <v>649836</v>
-      </c>
-      <c r="L11" s="1">
-        <v>633805</v>
-      </c>
-      <c r="M11" s="1">
-        <v>612213</v>
-      </c>
-      <c r="N11" s="1">
-        <v>585344</v>
-      </c>
-      <c r="O11" s="1">
-        <v>561127</v>
-      </c>
-      <c r="P11" s="1">
-        <v>541100</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>531710</v>
-      </c>
-      <c r="R11" s="1">
-        <v>523711</v>
-      </c>
-      <c r="S11" s="1">
-        <v>518269</v>
-      </c>
-      <c r="T11" s="1">
-        <v>515528</v>
-      </c>
-      <c r="U11" s="1">
-        <v>516780</v>
-      </c>
-      <c r="V11" s="1">
-        <v>521293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>540170</v>
-      </c>
-      <c r="C12" s="1">
-        <v>546134</v>
-      </c>
-      <c r="D12" s="1">
-        <v>553654</v>
-      </c>
-      <c r="E12" s="1">
-        <v>564868</v>
-      </c>
-      <c r="F12" s="1">
-        <v>579355</v>
-      </c>
-      <c r="G12" s="1">
-        <v>590217</v>
-      </c>
-      <c r="H12" s="1">
-        <v>606895</v>
-      </c>
-      <c r="I12" s="1">
-        <v>622618</v>
-      </c>
-      <c r="J12" s="1">
-        <v>632714</v>
-      </c>
-      <c r="K12" s="1">
-        <v>639042</v>
-      </c>
-      <c r="L12" s="1">
-        <v>647044</v>
-      </c>
-      <c r="M12" s="1">
-        <v>649669</v>
-      </c>
-      <c r="N12" s="1">
-        <v>651777</v>
-      </c>
-      <c r="O12" s="1">
-        <v>650855</v>
-      </c>
-      <c r="P12" s="1">
-        <v>646008</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>628151</v>
-      </c>
-      <c r="R12" s="1">
-        <v>611193</v>
-      </c>
-      <c r="S12" s="1">
-        <v>588051</v>
-      </c>
-      <c r="T12" s="1">
-        <v>564404</v>
-      </c>
-      <c r="U12" s="1">
-        <v>543589</v>
-      </c>
-      <c r="V12" s="1">
-        <v>532643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>447440</v>
-      </c>
-      <c r="C13" s="1">
-        <v>470117</v>
-      </c>
-      <c r="D13" s="1">
-        <v>487895</v>
-      </c>
-      <c r="E13" s="1">
-        <v>504845</v>
-      </c>
-      <c r="F13" s="1">
-        <v>518492</v>
-      </c>
-      <c r="G13" s="1">
-        <v>530422</v>
-      </c>
-      <c r="H13" s="1">
-        <v>536233</v>
-      </c>
-      <c r="I13" s="1">
-        <v>544483</v>
-      </c>
-      <c r="J13" s="1">
-        <v>556713</v>
-      </c>
-      <c r="K13" s="1">
-        <v>572854</v>
-      </c>
-      <c r="L13" s="1">
-        <v>585160</v>
-      </c>
-      <c r="M13" s="1">
-        <v>601735</v>
-      </c>
-      <c r="N13" s="1">
-        <v>617524</v>
-      </c>
-      <c r="O13" s="1">
-        <v>629320</v>
-      </c>
-      <c r="P13" s="1">
-        <v>638419</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>649132</v>
-      </c>
-      <c r="R13" s="1">
-        <v>650730</v>
-      </c>
-      <c r="S13" s="1">
-        <v>650842</v>
-      </c>
-      <c r="T13" s="1">
-        <v>648820</v>
-      </c>
-      <c r="U13" s="1">
-        <v>644545</v>
-      </c>
-      <c r="V13" s="1">
-        <v>629208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>346365</v>
-      </c>
-      <c r="C14" s="1">
-        <v>361831</v>
-      </c>
-      <c r="D14" s="1">
-        <v>379917</v>
-      </c>
-      <c r="E14" s="1">
-        <v>397714</v>
-      </c>
-      <c r="F14" s="1">
-        <v>417306</v>
-      </c>
-      <c r="G14" s="1">
-        <v>436368</v>
-      </c>
-      <c r="H14" s="1">
-        <v>458976</v>
-      </c>
-      <c r="I14" s="1">
-        <v>476711</v>
-      </c>
-      <c r="J14" s="1">
-        <v>492709</v>
-      </c>
-      <c r="K14" s="1">
-        <v>505044</v>
-      </c>
-      <c r="L14" s="1">
-        <v>516291</v>
-      </c>
-      <c r="M14" s="1">
-        <v>524163</v>
-      </c>
-      <c r="N14" s="1">
-        <v>534466</v>
-      </c>
-      <c r="O14" s="1">
-        <v>547114</v>
-      </c>
-      <c r="P14" s="1">
-        <v>563317</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>575798</v>
-      </c>
-      <c r="R14" s="1">
-        <v>593539</v>
-      </c>
-      <c r="S14" s="1">
-        <v>611340</v>
-      </c>
-      <c r="T14" s="1">
-        <v>623856</v>
-      </c>
-      <c r="U14" s="1">
-        <v>632633</v>
-      </c>
-      <c r="V14" s="1">
-        <v>642195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>311783</v>
-      </c>
-      <c r="C15" s="1">
-        <v>308095</v>
-      </c>
-      <c r="D15" s="1">
-        <v>308413</v>
-      </c>
-      <c r="E15" s="1">
-        <v>314305</v>
-      </c>
-      <c r="F15" s="1">
-        <v>321222</v>
-      </c>
-      <c r="G15" s="1">
-        <v>333012</v>
-      </c>
-      <c r="H15" s="1">
-        <v>348250</v>
-      </c>
-      <c r="I15" s="1">
-        <v>366255</v>
-      </c>
-      <c r="J15" s="1">
-        <v>384909</v>
-      </c>
-      <c r="K15" s="1">
-        <v>405684</v>
-      </c>
-      <c r="L15" s="1">
-        <v>424716</v>
-      </c>
-      <c r="M15" s="1">
-        <v>445968</v>
-      </c>
-      <c r="N15" s="1">
-        <v>463251</v>
-      </c>
-      <c r="O15" s="1">
-        <v>480557</v>
-      </c>
-      <c r="P15" s="1">
-        <v>495052</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>508051</v>
-      </c>
-      <c r="R15" s="1">
-        <v>513613</v>
-      </c>
-      <c r="S15" s="1">
-        <v>521912</v>
-      </c>
-      <c r="T15" s="1">
-        <v>533964</v>
-      </c>
-      <c r="U15" s="1">
-        <v>550147</v>
-      </c>
-      <c r="V15" s="1">
-        <v>563494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>287059</v>
-      </c>
-      <c r="C16" s="1">
-        <v>291947</v>
-      </c>
-      <c r="D16" s="1">
-        <v>293751</v>
-      </c>
-      <c r="E16" s="1">
-        <v>293687</v>
-      </c>
-      <c r="F16" s="1">
-        <v>292614</v>
-      </c>
-      <c r="G16" s="1">
-        <v>291925</v>
-      </c>
-      <c r="H16" s="1">
-        <v>288450</v>
-      </c>
-      <c r="I16" s="1">
-        <v>288819</v>
-      </c>
-      <c r="J16" s="1">
-        <v>294235</v>
-      </c>
-      <c r="K16" s="1">
-        <v>300627</v>
-      </c>
-      <c r="L16" s="1">
-        <v>312895</v>
-      </c>
-      <c r="M16" s="1">
-        <v>329522</v>
-      </c>
-      <c r="N16" s="1">
-        <v>347698</v>
-      </c>
-      <c r="O16" s="1">
-        <v>365961</v>
-      </c>
-      <c r="P16" s="1">
-        <v>385616</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>403721</v>
-      </c>
-      <c r="R16" s="1">
-        <v>424941</v>
-      </c>
-      <c r="S16" s="1">
-        <v>442242</v>
-      </c>
-      <c r="T16" s="1">
-        <v>458409</v>
-      </c>
-      <c r="U16" s="1">
-        <v>470811</v>
-      </c>
-      <c r="V16" s="1">
-        <v>482961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>237016</v>
-      </c>
-      <c r="C17" s="1">
-        <v>240247</v>
-      </c>
-      <c r="D17" s="1">
-        <v>245157</v>
-      </c>
-      <c r="E17" s="1">
-        <v>248523</v>
-      </c>
-      <c r="F17" s="1">
-        <v>253241</v>
-      </c>
-      <c r="G17" s="1">
-        <v>257444</v>
-      </c>
-      <c r="H17" s="1">
-        <v>261951</v>
-      </c>
-      <c r="I17" s="1">
-        <v>263650</v>
-      </c>
-      <c r="J17" s="1">
-        <v>263823</v>
-      </c>
-      <c r="K17" s="1">
-        <v>263237</v>
-      </c>
-      <c r="L17" s="1">
-        <v>263084</v>
-      </c>
-      <c r="M17" s="1">
-        <v>261908</v>
-      </c>
-      <c r="N17" s="1">
-        <v>264217</v>
-      </c>
-      <c r="O17" s="1">
-        <v>270858</v>
-      </c>
-      <c r="P17" s="1">
-        <v>279215</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>291818</v>
-      </c>
-      <c r="R17" s="1">
-        <v>304868</v>
-      </c>
-      <c r="S17" s="1">
-        <v>319884</v>
-      </c>
-      <c r="T17" s="1">
-        <v>335437</v>
-      </c>
-      <c r="U17" s="1">
-        <v>352273</v>
-      </c>
-      <c r="V17" s="1">
-        <v>369265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>162796</v>
-      </c>
-      <c r="C18" s="1">
-        <v>170881</v>
-      </c>
-      <c r="D18" s="1">
-        <v>177962</v>
-      </c>
-      <c r="E18" s="1">
-        <v>185990</v>
-      </c>
-      <c r="F18" s="1">
-        <v>192846</v>
-      </c>
-      <c r="G18" s="1">
-        <v>198583</v>
-      </c>
-      <c r="H18" s="1">
-        <v>202063</v>
-      </c>
-      <c r="I18" s="1">
-        <v>206784</v>
-      </c>
-      <c r="J18" s="1">
-        <v>209687</v>
-      </c>
-      <c r="K18" s="1">
-        <v>213468</v>
-      </c>
-      <c r="L18" s="1">
-        <v>217302</v>
-      </c>
-      <c r="M18" s="1">
-        <v>223245</v>
-      </c>
-      <c r="N18" s="1">
-        <v>227039</v>
-      </c>
-      <c r="O18" s="1">
-        <v>229017</v>
-      </c>
-      <c r="P18" s="1">
-        <v>230168</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>230770</v>
-      </c>
-      <c r="R18" s="1">
-        <v>230153</v>
-      </c>
-      <c r="S18" s="1">
-        <v>231768</v>
-      </c>
-      <c r="T18" s="1">
-        <v>237065</v>
-      </c>
-      <c r="U18" s="1">
-        <v>242819</v>
-      </c>
-      <c r="V18" s="1">
-        <v>252546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1">
-        <v>104932</v>
-      </c>
-      <c r="C19" s="1">
-        <v>106945</v>
-      </c>
-      <c r="D19" s="1">
-        <v>109073</v>
-      </c>
-      <c r="E19" s="1">
-        <v>111205</v>
-      </c>
-      <c r="F19" s="1">
-        <v>115816</v>
-      </c>
-      <c r="G19" s="1">
-        <v>121813</v>
-      </c>
-      <c r="H19" s="1">
-        <v>128735</v>
-      </c>
-      <c r="I19" s="1">
-        <v>135022</v>
-      </c>
-      <c r="J19" s="1">
-        <v>141511</v>
-      </c>
-      <c r="K19" s="1">
-        <v>147652</v>
-      </c>
-      <c r="L19" s="1">
-        <v>153270</v>
-      </c>
-      <c r="M19" s="1">
-        <v>156832</v>
-      </c>
-      <c r="N19" s="1">
-        <v>161648</v>
-      </c>
-      <c r="O19" s="1">
-        <v>165984</v>
-      </c>
-      <c r="P19" s="1">
-        <v>170991</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>175911</v>
-      </c>
-      <c r="R19" s="1">
-        <v>180126</v>
-      </c>
-      <c r="S19" s="1">
-        <v>182343</v>
-      </c>
-      <c r="T19" s="1">
-        <v>183517</v>
-      </c>
-      <c r="U19" s="1">
-        <v>183407</v>
-      </c>
-      <c r="V19" s="1">
-        <v>183822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
-        <v>52993</v>
-      </c>
-      <c r="C20" s="1">
-        <v>54807</v>
-      </c>
-      <c r="D20" s="1">
-        <v>56942</v>
-      </c>
-      <c r="E20" s="1">
-        <v>59372</v>
-      </c>
-      <c r="F20" s="1">
-        <v>62126</v>
-      </c>
-      <c r="G20" s="1">
-        <v>64486</v>
-      </c>
-      <c r="H20" s="1">
-        <v>65794</v>
-      </c>
-      <c r="I20" s="1">
-        <v>67661</v>
-      </c>
-      <c r="J20" s="1">
-        <v>69664</v>
-      </c>
-      <c r="K20" s="1">
-        <v>72919</v>
-      </c>
-      <c r="L20" s="1">
-        <v>78511</v>
-      </c>
-      <c r="M20" s="1">
-        <v>83877</v>
-      </c>
-      <c r="N20" s="1">
-        <v>89121</v>
-      </c>
-      <c r="O20" s="1">
-        <v>94353</v>
-      </c>
-      <c r="P20" s="1">
-        <v>99353</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>103113</v>
-      </c>
-      <c r="R20" s="1">
-        <v>106530</v>
-      </c>
-      <c r="S20" s="1">
-        <v>109874</v>
-      </c>
-      <c r="T20" s="1">
-        <v>112917</v>
-      </c>
-      <c r="U20" s="1">
-        <v>115469</v>
-      </c>
-      <c r="V20" s="1">
-        <v>119161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1">
-        <v>23752</v>
-      </c>
-      <c r="H21" s="1">
-        <v>25070</v>
-      </c>
-      <c r="I21" s="1">
-        <v>26158</v>
-      </c>
-      <c r="J21" s="1">
-        <v>26955</v>
-      </c>
-      <c r="K21" s="1">
-        <v>27720</v>
-      </c>
-      <c r="L21" s="1">
-        <v>29056</v>
-      </c>
-      <c r="M21" s="1">
-        <v>30510</v>
-      </c>
-      <c r="N21" s="1">
-        <v>32458</v>
-      </c>
-      <c r="O21" s="1">
-        <v>34281</v>
-      </c>
-      <c r="P21" s="1">
-        <v>36826</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>39761</v>
-      </c>
-      <c r="R21" s="1">
-        <v>43120</v>
-      </c>
-      <c r="S21" s="1">
-        <v>45803</v>
-      </c>
-      <c r="T21" s="1">
-        <v>48624</v>
-      </c>
-      <c r="U21" s="1">
-        <v>50782</v>
-      </c>
-      <c r="V21" s="1">
-        <v>53711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1">
-        <v>5475</v>
-      </c>
-      <c r="H22" s="1">
-        <v>5607</v>
-      </c>
-      <c r="I22" s="1">
-        <v>6013</v>
-      </c>
-      <c r="J22" s="1">
-        <v>6210</v>
-      </c>
-      <c r="K22" s="1">
-        <v>6508</v>
-      </c>
-      <c r="L22" s="1">
-        <v>6978</v>
-      </c>
-      <c r="M22" s="1">
-        <v>7326</v>
-      </c>
-      <c r="N22" s="1">
-        <v>7896</v>
-      </c>
-      <c r="O22" s="1">
-        <v>8383</v>
-      </c>
-      <c r="P22" s="1">
-        <v>9023</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>9739</v>
-      </c>
-      <c r="R22" s="1">
-        <v>10305</v>
-      </c>
-      <c r="S22" s="1">
-        <v>10884</v>
-      </c>
-      <c r="T22" s="1">
-        <v>11477</v>
-      </c>
-      <c r="U22" s="1">
-        <v>12249</v>
-      </c>
-      <c r="V22" s="1">
-        <v>13466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>773</v>
-      </c>
-      <c r="H23">
-        <v>813</v>
-      </c>
-      <c r="I23">
-        <v>856</v>
-      </c>
-      <c r="J23">
-        <v>902</v>
-      </c>
-      <c r="K23">
-        <v>886</v>
-      </c>
-      <c r="L23">
-        <v>849</v>
-      </c>
-      <c r="M23">
-        <v>957</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1107</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1210</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1361</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>1392</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1494</v>
-      </c>
-      <c r="S23" s="1">
-        <v>1514</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1617</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1719</v>
-      </c>
-      <c r="V23" s="1">
-        <v>2008</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>1996</v>
-      </c>
-      <c r="C1">
-        <v>1997</v>
-      </c>
-      <c r="D1">
-        <v>1998</v>
-      </c>
-      <c r="E1">
-        <v>1999</v>
-      </c>
-      <c r="F1">
-        <v>2000</v>
-      </c>
-      <c r="G1">
-        <v>2001</v>
-      </c>
-      <c r="H1">
-        <v>2002</v>
-      </c>
-      <c r="I1">
-        <v>2003</v>
-      </c>
-      <c r="J1">
-        <v>2004</v>
-      </c>
-      <c r="K1">
-        <v>2005</v>
-      </c>
-      <c r="L1">
-        <v>2006</v>
-      </c>
-      <c r="M1">
-        <v>2007</v>
-      </c>
-      <c r="N1">
-        <v>2008</v>
-      </c>
-      <c r="O1">
-        <v>2009</v>
-      </c>
-      <c r="P1">
-        <v>2010</v>
-      </c>
-      <c r="Q1">
-        <v>2011</v>
-      </c>
-      <c r="R1">
-        <v>2012</v>
-      </c>
-      <c r="S1">
-        <v>2013</v>
-      </c>
-      <c r="T1">
-        <v>2014</v>
-      </c>
-      <c r="U1">
-        <v>2015</v>
-      </c>
-      <c r="V1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
         <v>752268</v>
       </c>
       <c r="C2" s="1">
